--- a/0929_covid_df_merge/data/2021-09-29_corona.xlsx
+++ b/0929_covid_df_merge/data/2021-09-29_corona.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="1924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="1914">
   <si>
     <t>국가</t>
   </si>
@@ -1679,10 +1679,10 @@
     <t>75</t>
   </si>
   <si>
-    <t>133437</t>
-  </si>
-  <si>
-    <t>24448</t>
+    <t>133532</t>
+  </si>
+  <si>
+    <t>24449</t>
   </si>
   <si>
     <t>100676</t>
@@ -1721,7 +1721,7 @@
     <t>15404</t>
   </si>
   <si>
-    <t>28275</t>
+    <t>28351</t>
   </si>
   <si>
     <t>76780</t>
@@ -1733,13 +1733,13 @@
     <t>23140</t>
   </si>
   <si>
-    <t>55143</t>
+    <t>55412</t>
   </si>
   <si>
     <t>68991</t>
   </si>
   <si>
-    <t>65942</t>
+    <t>65975</t>
   </si>
   <si>
     <t>116800</t>
@@ -1751,7 +1751,7 @@
     <t>13444</t>
   </si>
   <si>
-    <t>157882</t>
+    <t>157951</t>
   </si>
   <si>
     <t>86492</t>
@@ -1760,7 +1760,7 @@
     <t>42926</t>
   </si>
   <si>
-    <t>22806</t>
+    <t>22972</t>
   </si>
   <si>
     <t>9442</t>
@@ -1769,10 +1769,10 @@
     <t>147567</t>
   </si>
   <si>
-    <t>5629</t>
-  </si>
-  <si>
-    <t>107012</t>
+    <t>5637</t>
+  </si>
+  <si>
+    <t>107236</t>
   </si>
   <si>
     <t>63502</t>
@@ -1790,7 +1790,7 @@
     <t>25249</t>
   </si>
   <si>
-    <t>47007</t>
+    <t>47127</t>
   </si>
   <si>
     <t>77024</t>
@@ -1799,7 +1799,7 @@
     <t>96968</t>
   </si>
   <si>
-    <t>85098</t>
+    <t>85163</t>
   </si>
   <si>
     <t>80651</t>
@@ -1826,7 +1826,7 @@
     <t>91365</t>
   </si>
   <si>
-    <t>153232</t>
+    <t>153669</t>
   </si>
   <si>
     <t>31104</t>
@@ -1847,7 +1847,7 @@
     <t>28863</t>
   </si>
   <si>
-    <t>42804</t>
+    <t>42842</t>
   </si>
   <si>
     <t>71975</t>
@@ -1856,7 +1856,7 @@
     <t>47650</t>
   </si>
   <si>
-    <t>108138</t>
+    <t>108198</t>
   </si>
   <si>
     <t>8502</t>
@@ -1883,10 +1883,10 @@
     <t>78712</t>
   </si>
   <si>
-    <t>12876</t>
-  </si>
-  <si>
-    <t>36878</t>
+    <t>12930</t>
+  </si>
+  <si>
+    <t>36952</t>
   </si>
   <si>
     <t>61871</t>
@@ -1904,16 +1904,16 @@
     <t>121173</t>
   </si>
   <si>
-    <t>6022</t>
+    <t>6072</t>
   </si>
   <si>
     <t>59479</t>
   </si>
   <si>
-    <t>2961</t>
-  </si>
-  <si>
-    <t>91949</t>
+    <t>2969</t>
+  </si>
+  <si>
+    <t>92757</t>
   </si>
   <si>
     <t>140617</t>
@@ -1925,7 +1925,7 @@
     <t>161604</t>
   </si>
   <si>
-    <t>87969</t>
+    <t>88314</t>
   </si>
   <si>
     <t>4634</t>
@@ -1937,7 +1937,7 @@
     <t>71255</t>
   </si>
   <si>
-    <t>11364</t>
+    <t>11369</t>
   </si>
   <si>
     <t>997</t>
@@ -1949,13 +1949,13 @@
     <t>34835</t>
   </si>
   <si>
-    <t>27351</t>
+    <t>27365</t>
   </si>
   <si>
     <t>75714</t>
   </si>
   <si>
-    <t>5181</t>
+    <t>5196</t>
   </si>
   <si>
     <t>58886</t>
@@ -1970,7 +1970,7 @@
     <t>3986</t>
   </si>
   <si>
-    <t>4817</t>
+    <t>4820</t>
   </si>
   <si>
     <t>25428</t>
@@ -1979,7 +1979,7 @@
     <t>208609</t>
   </si>
   <si>
-    <t>8765</t>
+    <t>8779</t>
   </si>
   <si>
     <t>50176</t>
@@ -1991,10 +1991,10 @@
     <t>2699</t>
   </si>
   <si>
-    <t>97981</t>
-  </si>
-  <si>
-    <t>6679</t>
+    <t>98083</t>
+  </si>
+  <si>
+    <t>6738</t>
   </si>
   <si>
     <t>59381</t>
@@ -2003,7 +2003,7 @@
     <t>16088</t>
   </si>
   <si>
-    <t>4029</t>
+    <t>4123</t>
   </si>
   <si>
     <t>7517</t>
@@ -2030,40 +2030,40 @@
     <t>3218</t>
   </si>
   <si>
-    <t>2275</t>
+    <t>2280</t>
   </si>
   <si>
     <t>635</t>
   </si>
   <si>
-    <t>1705</t>
+    <t>1722</t>
   </si>
   <si>
     <t>59959</t>
   </si>
   <si>
-    <t>132809</t>
+    <t>133921</t>
   </si>
   <si>
     <t>56839</t>
   </si>
   <si>
-    <t>35891</t>
-  </si>
-  <si>
-    <t>39538</t>
+    <t>36055</t>
+  </si>
+  <si>
+    <t>39567</t>
   </si>
   <si>
     <t>1549</t>
   </si>
   <si>
-    <t>69872</t>
-  </si>
-  <si>
-    <t>135827</t>
-  </si>
-  <si>
-    <t>108044</t>
+    <t>70605</t>
+  </si>
+  <si>
+    <t>136751</t>
+  </si>
+  <si>
+    <t>109600</t>
   </si>
   <si>
     <t>143029</t>
@@ -2072,19 +2072,19 @@
     <t>872</t>
   </si>
   <si>
-    <t>67449</t>
+    <t>67511</t>
   </si>
   <si>
     <t>84085</t>
   </si>
   <si>
-    <t>7730</t>
+    <t>7740</t>
   </si>
   <si>
     <t>1939</t>
   </si>
   <si>
-    <t>39869</t>
+    <t>40224</t>
   </si>
   <si>
     <t>2314</t>
@@ -2093,7 +2093,7 @@
     <t>13261</t>
   </si>
   <si>
-    <t>3059</t>
+    <t>3064</t>
   </si>
   <si>
     <t>3228</t>
@@ -2111,7 +2111,7 @@
     <t>53361</t>
   </si>
   <si>
-    <t>51040</t>
+    <t>51727</t>
   </si>
   <si>
     <t>74314</t>
@@ -2132,10 +2132,10 @@
     <t>1791</t>
   </si>
   <si>
-    <t>100114</t>
-  </si>
-  <si>
-    <t>144690</t>
+    <t>100339</t>
+  </si>
+  <si>
+    <t>144915</t>
   </si>
   <si>
     <t>12272</t>
@@ -2165,7 +2165,7 @@
     <t>1629</t>
   </si>
   <si>
-    <t>1070</t>
+    <t>1072</t>
   </si>
   <si>
     <t>8706</t>
@@ -2177,7 +2177,7 @@
     <t>2354</t>
   </si>
   <si>
-    <t>61647</t>
+    <t>62404</t>
   </si>
   <si>
     <t>4111</t>
@@ -2186,7 +2186,7 @@
     <t>303</t>
   </si>
   <si>
-    <t>27772</t>
+    <t>28465</t>
   </si>
   <si>
     <t>88718</t>
@@ -2219,10 +2219,10 @@
     <t>159972</t>
   </si>
   <si>
-    <t>82613</t>
-  </si>
-  <si>
-    <t>44782</t>
+    <t>84203</t>
+  </si>
+  <si>
+    <t>45680</t>
   </si>
   <si>
     <t>307</t>
@@ -2231,7 +2231,7 @@
     <t>99426</t>
   </si>
   <si>
-    <t>881</t>
+    <t>886</t>
   </si>
   <si>
     <t>4757</t>
@@ -2270,7 +2270,7 @@
     <t>79434</t>
   </si>
   <si>
-    <t>35546</t>
+    <t>36053</t>
   </si>
   <si>
     <t>158449</t>
@@ -2279,13 +2279,13 @@
     <t>23760</t>
   </si>
   <si>
-    <t>12477</t>
+    <t>12705</t>
   </si>
   <si>
     <t>10093</t>
   </si>
   <si>
-    <t>25928</t>
+    <t>27261</t>
   </si>
   <si>
     <t>109</t>
@@ -2975,28 +2975,16 @@
     <t>115023</t>
   </si>
   <si>
-    <t>21,296</t>
-  </si>
-  <si>
-    <t>8,944</t>
-  </si>
-  <si>
-    <t>8,318</t>
+    <t>21296</t>
   </si>
   <si>
     <t>831</t>
   </si>
   <si>
-    <t>2,300</t>
-  </si>
-  <si>
-    <t>1,609</t>
-  </si>
-  <si>
-    <t>6,016</t>
-  </si>
-  <si>
-    <t>1,184</t>
+    <t>6016</t>
+  </si>
+  <si>
+    <t>1184</t>
   </si>
   <si>
     <t>771</t>
@@ -3005,22 +2993,13 @@
     <t>459</t>
   </si>
   <si>
-    <t>1,435</t>
-  </si>
-  <si>
-    <t>4,798</t>
-  </si>
-  <si>
     <t>174</t>
   </si>
   <si>
-    <t>3,170</t>
-  </si>
-  <si>
     <t>985</t>
   </si>
   <si>
-    <t>1,021</t>
+    <t>1021</t>
   </si>
   <si>
     <t>155</t>
@@ -3029,7 +3008,7 @@
     <t>497</t>
   </si>
   <si>
-    <t>1,002</t>
+    <t>1002</t>
   </si>
   <si>
     <t>38</t>
@@ -3041,19 +3020,13 @@
     <t>776</t>
   </si>
   <si>
-    <t>3,324</t>
-  </si>
-  <si>
-    <t>1,408</t>
-  </si>
-  <si>
     <t>659</t>
   </si>
   <si>
-    <t>3,948</t>
-  </si>
-  <si>
-    <t>1,320</t>
+    <t>3948</t>
+  </si>
+  <si>
+    <t>1320</t>
   </si>
   <si>
     <t>37</t>
@@ -3122,9 +3095,6 @@
     <t>18</t>
   </si>
   <si>
-    <t>1,124</t>
-  </si>
-  <si>
     <t>268</t>
   </si>
   <si>
@@ -5120,7 +5090,7 @@
     <t>408,459</t>
   </si>
   <si>
-    <t>387,372</t>
+    <t>387,358</t>
   </si>
   <si>
     <t>386,351</t>
@@ -5705,7 +5675,7 @@
     <t>+35</t>
   </si>
   <si>
-    <t>+760</t>
+    <t>+746</t>
   </si>
   <si>
     <t>+4638</t>
@@ -6274,25 +6244,25 @@
         <v>967</v>
       </c>
       <c r="H2" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="I2" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="J2" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="K2" t="s">
-        <v>1407</v>
+        <v>1397</v>
       </c>
       <c r="L2" t="s">
-        <v>1591</v>
+        <v>1581</v>
       </c>
       <c r="M2" t="s">
-        <v>1622</v>
+        <v>1612</v>
       </c>
       <c r="N2" t="s">
-        <v>1824</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -6315,25 +6285,25 @@
         <v>749</v>
       </c>
       <c r="G3" t="s">
-        <v>968</v>
+        <v>237</v>
       </c>
       <c r="I3" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="J3" t="s">
-        <v>1267</v>
+        <v>1257</v>
       </c>
       <c r="K3" t="s">
-        <v>1408</v>
+        <v>1398</v>
       </c>
       <c r="L3" t="s">
-        <v>1592</v>
+        <v>1582</v>
       </c>
       <c r="M3" t="s">
-        <v>1623</v>
+        <v>1613</v>
       </c>
       <c r="N3" t="s">
-        <v>1825</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -6356,25 +6326,25 @@
         <v>750</v>
       </c>
       <c r="G4" t="s">
-        <v>969</v>
+        <v>238</v>
       </c>
       <c r="I4" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="J4" t="s">
-        <v>1268</v>
+        <v>1258</v>
       </c>
       <c r="K4" t="s">
-        <v>1409</v>
+        <v>1399</v>
       </c>
       <c r="L4" t="s">
-        <v>1593</v>
+        <v>1583</v>
       </c>
       <c r="M4" t="s">
-        <v>1624</v>
+        <v>1614</v>
       </c>
       <c r="N4" t="s">
-        <v>1826</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -6397,28 +6367,28 @@
         <v>751</v>
       </c>
       <c r="G5" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H5" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="I5" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="J5" t="s">
-        <v>1269</v>
+        <v>1259</v>
       </c>
       <c r="K5" t="s">
-        <v>1410</v>
+        <v>1400</v>
       </c>
       <c r="L5" t="s">
-        <v>1594</v>
+        <v>1584</v>
       </c>
       <c r="M5" t="s">
-        <v>1625</v>
+        <v>1615</v>
       </c>
       <c r="N5" t="s">
-        <v>1827</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -6441,25 +6411,25 @@
         <v>752</v>
       </c>
       <c r="G6" t="s">
-        <v>971</v>
+        <v>240</v>
       </c>
       <c r="I6" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="J6" t="s">
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="K6" t="s">
-        <v>1411</v>
+        <v>1401</v>
       </c>
       <c r="L6" t="s">
-        <v>1595</v>
+        <v>1585</v>
       </c>
       <c r="M6" t="s">
-        <v>1626</v>
+        <v>1616</v>
       </c>
       <c r="N6" t="s">
-        <v>1828</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -6485,22 +6455,22 @@
         <v>241</v>
       </c>
       <c r="I7" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="J7" t="s">
-        <v>1271</v>
+        <v>1261</v>
       </c>
       <c r="K7" t="s">
-        <v>1412</v>
+        <v>1402</v>
       </c>
       <c r="L7" t="s">
-        <v>1596</v>
+        <v>1586</v>
       </c>
       <c r="M7" t="s">
-        <v>1627</v>
+        <v>1617</v>
       </c>
       <c r="N7" t="s">
-        <v>1829</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -6523,25 +6493,25 @@
         <v>754</v>
       </c>
       <c r="G8" t="s">
-        <v>972</v>
+        <v>242</v>
       </c>
       <c r="I8" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="J8" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="K8" t="s">
-        <v>1413</v>
+        <v>1403</v>
       </c>
       <c r="L8" t="s">
-        <v>1597</v>
+        <v>1587</v>
       </c>
       <c r="M8" t="s">
-        <v>1628</v>
+        <v>1618</v>
       </c>
       <c r="N8" t="s">
-        <v>1830</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -6564,28 +6534,28 @@
         <v>755</v>
       </c>
       <c r="G9" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="H9" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="I9" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="J9" t="s">
-        <v>1273</v>
+        <v>1263</v>
       </c>
       <c r="K9" t="s">
-        <v>1414</v>
+        <v>1404</v>
       </c>
       <c r="L9" t="s">
-        <v>1598</v>
+        <v>1588</v>
       </c>
       <c r="M9" t="s">
-        <v>1629</v>
+        <v>1619</v>
       </c>
       <c r="N9" t="s">
-        <v>1831</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -6608,28 +6578,28 @@
         <v>756</v>
       </c>
       <c r="G10" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="H10" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="I10" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="J10" t="s">
-        <v>1274</v>
+        <v>1264</v>
       </c>
       <c r="K10" t="s">
-        <v>1415</v>
+        <v>1405</v>
       </c>
       <c r="L10" t="s">
-        <v>1599</v>
+        <v>1589</v>
       </c>
       <c r="M10" t="s">
-        <v>1630</v>
+        <v>1620</v>
       </c>
       <c r="N10" t="s">
-        <v>1832</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -6655,22 +6625,22 @@
         <v>245</v>
       </c>
       <c r="I11" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="J11" t="s">
-        <v>1275</v>
+        <v>1265</v>
       </c>
       <c r="K11" t="s">
-        <v>1416</v>
+        <v>1406</v>
       </c>
       <c r="L11" t="s">
-        <v>1600</v>
+        <v>1590</v>
       </c>
       <c r="M11" t="s">
-        <v>1631</v>
+        <v>1621</v>
       </c>
       <c r="N11" t="s">
-        <v>1833</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -6693,28 +6663,28 @@
         <v>758</v>
       </c>
       <c r="G12" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="H12" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="I12" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="J12" t="s">
-        <v>1276</v>
+        <v>1266</v>
       </c>
       <c r="K12" t="s">
-        <v>1417</v>
+        <v>1407</v>
       </c>
       <c r="L12" t="s">
-        <v>1601</v>
+        <v>1591</v>
       </c>
       <c r="M12" t="s">
-        <v>1632</v>
+        <v>1622</v>
       </c>
       <c r="N12" t="s">
-        <v>1834</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -6737,28 +6707,28 @@
         <v>759</v>
       </c>
       <c r="G13" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="H13" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="I13" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
       <c r="J13" t="s">
-        <v>1277</v>
+        <v>1267</v>
       </c>
       <c r="K13" t="s">
-        <v>1418</v>
+        <v>1408</v>
       </c>
       <c r="L13" t="s">
-        <v>1602</v>
+        <v>1592</v>
       </c>
       <c r="M13" t="s">
-        <v>1633</v>
+        <v>1623</v>
       </c>
       <c r="N13" t="s">
-        <v>1835</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -6781,25 +6751,25 @@
         <v>760</v>
       </c>
       <c r="G14" t="s">
-        <v>977</v>
+        <v>248</v>
       </c>
       <c r="I14" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="J14" t="s">
-        <v>1278</v>
+        <v>1268</v>
       </c>
       <c r="K14" t="s">
-        <v>1419</v>
+        <v>1409</v>
       </c>
       <c r="L14" t="s">
-        <v>1603</v>
+        <v>1593</v>
       </c>
       <c r="M14" t="s">
-        <v>1634</v>
+        <v>1624</v>
       </c>
       <c r="N14" t="s">
-        <v>1836</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -6825,22 +6795,22 @@
         <v>249</v>
       </c>
       <c r="I15" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="J15" t="s">
-        <v>1279</v>
+        <v>1269</v>
       </c>
       <c r="K15" t="s">
-        <v>1420</v>
+        <v>1410</v>
       </c>
       <c r="L15" t="s">
-        <v>1364</v>
+        <v>1354</v>
       </c>
       <c r="M15" t="s">
-        <v>1635</v>
+        <v>1625</v>
       </c>
       <c r="N15" t="s">
-        <v>1837</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -6863,25 +6833,25 @@
         <v>762</v>
       </c>
       <c r="G16" t="s">
-        <v>978</v>
+        <v>250</v>
       </c>
       <c r="I16" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="J16" t="s">
-        <v>1280</v>
+        <v>1270</v>
       </c>
       <c r="K16" t="s">
-        <v>1421</v>
+        <v>1411</v>
       </c>
       <c r="L16" t="s">
-        <v>1604</v>
+        <v>1594</v>
       </c>
       <c r="M16" t="s">
-        <v>1636</v>
+        <v>1626</v>
       </c>
       <c r="N16" t="s">
-        <v>1838</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -6904,28 +6874,28 @@
         <v>763</v>
       </c>
       <c r="G17" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="H17" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="I17" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="J17" t="s">
-        <v>1281</v>
+        <v>1271</v>
       </c>
       <c r="K17" t="s">
-        <v>1422</v>
+        <v>1412</v>
       </c>
       <c r="L17" t="s">
-        <v>1605</v>
+        <v>1595</v>
       </c>
       <c r="M17" t="s">
-        <v>1637</v>
+        <v>1627</v>
       </c>
       <c r="N17" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -6951,22 +6921,22 @@
         <v>252</v>
       </c>
       <c r="I18" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="J18" t="s">
-        <v>1282</v>
+        <v>1272</v>
       </c>
       <c r="K18" t="s">
-        <v>1423</v>
+        <v>1413</v>
       </c>
       <c r="L18" t="s">
-        <v>1606</v>
+        <v>1596</v>
       </c>
       <c r="M18" t="s">
-        <v>1638</v>
+        <v>1628</v>
       </c>
       <c r="N18" t="s">
-        <v>1839</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -6989,25 +6959,25 @@
         <v>765</v>
       </c>
       <c r="G19" t="s">
-        <v>980</v>
+        <v>253</v>
       </c>
       <c r="I19" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="J19" t="s">
-        <v>1283</v>
+        <v>1273</v>
       </c>
       <c r="K19" t="s">
-        <v>1424</v>
+        <v>1414</v>
       </c>
       <c r="L19" t="s">
-        <v>1607</v>
+        <v>1597</v>
       </c>
       <c r="M19" t="s">
-        <v>1639</v>
+        <v>1629</v>
       </c>
       <c r="N19" t="s">
-        <v>1840</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -7033,22 +7003,22 @@
         <v>254</v>
       </c>
       <c r="I20" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="J20" t="s">
-        <v>1284</v>
+        <v>1274</v>
       </c>
       <c r="K20" t="s">
-        <v>1425</v>
+        <v>1415</v>
       </c>
       <c r="L20" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="M20" t="s">
-        <v>1640</v>
+        <v>1630</v>
       </c>
       <c r="N20" t="s">
-        <v>1841</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -7071,28 +7041,28 @@
         <v>767</v>
       </c>
       <c r="G21" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="H21" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="I21" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="J21" t="s">
-        <v>1285</v>
+        <v>1275</v>
       </c>
       <c r="K21" t="s">
-        <v>1426</v>
+        <v>1416</v>
       </c>
       <c r="L21" t="s">
-        <v>1608</v>
+        <v>1598</v>
       </c>
       <c r="M21" t="s">
-        <v>1641</v>
+        <v>1631</v>
       </c>
       <c r="N21" t="s">
-        <v>1842</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -7115,22 +7085,22 @@
         <v>768</v>
       </c>
       <c r="G22" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="H22" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="I22" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="J22" t="s">
-        <v>1286</v>
+        <v>1276</v>
       </c>
       <c r="K22" t="s">
-        <v>1427</v>
+        <v>1417</v>
       </c>
       <c r="L22" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="M22" t="s">
         <v>249</v>
@@ -7156,22 +7126,22 @@
         <v>769</v>
       </c>
       <c r="G23" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="H23" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="I23" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="J23" t="s">
-        <v>1287</v>
+        <v>1277</v>
       </c>
       <c r="K23" t="s">
-        <v>1428</v>
+        <v>1418</v>
       </c>
       <c r="L23" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="M23" t="s">
         <v>249</v>
@@ -7197,28 +7167,28 @@
         <v>770</v>
       </c>
       <c r="G24" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="H24" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="I24" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="J24" t="s">
-        <v>1288</v>
+        <v>1278</v>
       </c>
       <c r="K24" t="s">
-        <v>1429</v>
+        <v>1419</v>
       </c>
       <c r="L24" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="M24" t="s">
-        <v>1642</v>
+        <v>1632</v>
       </c>
       <c r="N24" t="s">
-        <v>1843</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -7241,28 +7211,28 @@
         <v>771</v>
       </c>
       <c r="G25" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="H25" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="I25" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="J25" t="s">
-        <v>1289</v>
+        <v>1279</v>
       </c>
       <c r="K25" t="s">
-        <v>1430</v>
+        <v>1420</v>
       </c>
       <c r="L25" t="s">
-        <v>1345</v>
+        <v>1335</v>
       </c>
       <c r="M25" t="s">
-        <v>1643</v>
+        <v>1633</v>
       </c>
       <c r="N25" t="s">
-        <v>1844</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -7285,28 +7255,28 @@
         <v>772</v>
       </c>
       <c r="G26" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="H26" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="I26" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="J26" t="s">
-        <v>1290</v>
+        <v>1280</v>
       </c>
       <c r="K26" t="s">
-        <v>1431</v>
+        <v>1421</v>
       </c>
       <c r="L26" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="M26" t="s">
-        <v>1644</v>
+        <v>1634</v>
       </c>
       <c r="N26" t="s">
-        <v>1845</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -7329,28 +7299,28 @@
         <v>773</v>
       </c>
       <c r="G27" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="H27" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="I27" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="J27" t="s">
-        <v>1291</v>
+        <v>1281</v>
       </c>
       <c r="K27" t="s">
-        <v>1432</v>
+        <v>1422</v>
       </c>
       <c r="L27" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="M27" t="s">
-        <v>1645</v>
+        <v>1635</v>
       </c>
       <c r="N27" t="s">
-        <v>1846</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -7373,28 +7343,28 @@
         <v>774</v>
       </c>
       <c r="G28" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="H28" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="I28" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="J28" t="s">
-        <v>1292</v>
+        <v>1282</v>
       </c>
       <c r="K28" t="s">
-        <v>1433</v>
+        <v>1423</v>
       </c>
       <c r="L28" t="s">
-        <v>1609</v>
+        <v>1599</v>
       </c>
       <c r="M28" t="s">
-        <v>1646</v>
+        <v>1636</v>
       </c>
       <c r="N28" t="s">
-        <v>1847</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -7417,25 +7387,25 @@
         <v>775</v>
       </c>
       <c r="G29" t="s">
-        <v>989</v>
+        <v>263</v>
       </c>
       <c r="I29" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="J29" t="s">
-        <v>1293</v>
+        <v>1283</v>
       </c>
       <c r="K29" t="s">
-        <v>1434</v>
+        <v>1424</v>
       </c>
       <c r="L29" t="s">
-        <v>1610</v>
+        <v>1600</v>
       </c>
       <c r="M29" t="s">
-        <v>1647</v>
+        <v>1637</v>
       </c>
       <c r="N29" t="s">
-        <v>1848</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -7458,25 +7428,25 @@
         <v>776</v>
       </c>
       <c r="G30" t="s">
-        <v>990</v>
+        <v>264</v>
       </c>
       <c r="I30" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="J30" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
       <c r="K30" t="s">
-        <v>1435</v>
+        <v>1425</v>
       </c>
       <c r="L30" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="M30" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="N30" t="s">
-        <v>1849</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -7499,28 +7469,28 @@
         <v>777</v>
       </c>
       <c r="G31" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="H31" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="I31" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="J31" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="K31" t="s">
-        <v>1436</v>
+        <v>1426</v>
       </c>
       <c r="L31" t="s">
-        <v>1382</v>
+        <v>1372</v>
       </c>
       <c r="M31" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
       <c r="N31" t="s">
-        <v>1850</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -7543,28 +7513,28 @@
         <v>778</v>
       </c>
       <c r="G32" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="H32" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="I32" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="J32" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
       <c r="K32" t="s">
-        <v>1437</v>
+        <v>1427</v>
       </c>
       <c r="L32" t="s">
-        <v>1611</v>
+        <v>1601</v>
       </c>
       <c r="M32" t="s">
-        <v>1650</v>
+        <v>1640</v>
       </c>
       <c r="N32" t="s">
-        <v>1851</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -7590,19 +7560,19 @@
         <v>267</v>
       </c>
       <c r="I33" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="J33" t="s">
-        <v>1297</v>
+        <v>1287</v>
       </c>
       <c r="K33" t="s">
-        <v>1438</v>
+        <v>1428</v>
       </c>
       <c r="L33" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
       <c r="M33" t="s">
-        <v>1651</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -7625,28 +7595,28 @@
         <v>780</v>
       </c>
       <c r="G34" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="H34" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="I34" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="J34" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="K34" t="s">
-        <v>1439</v>
+        <v>1429</v>
       </c>
       <c r="L34" t="s">
-        <v>1613</v>
+        <v>1603</v>
       </c>
       <c r="M34" t="s">
-        <v>1652</v>
+        <v>1642</v>
       </c>
       <c r="N34" t="s">
-        <v>1852</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -7669,22 +7639,22 @@
         <v>781</v>
       </c>
       <c r="G35" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="H35" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="I35" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="J35" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="K35" t="s">
-        <v>1440</v>
+        <v>1430</v>
       </c>
       <c r="L35" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="M35" t="s">
         <v>249</v>
@@ -7713,25 +7683,25 @@
         <v>746</v>
       </c>
       <c r="H36" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="I36" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="J36" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="K36" t="s">
-        <v>1441</v>
+        <v>1431</v>
       </c>
       <c r="L36" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="M36" t="s">
-        <v>1653</v>
+        <v>1643</v>
       </c>
       <c r="N36" t="s">
-        <v>1853</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -7754,28 +7724,28 @@
         <v>783</v>
       </c>
       <c r="G37" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="H37" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="I37" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="J37" t="s">
-        <v>1301</v>
+        <v>1291</v>
       </c>
       <c r="K37" t="s">
-        <v>1442</v>
+        <v>1432</v>
       </c>
       <c r="L37" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
       <c r="M37" t="s">
-        <v>1654</v>
+        <v>1644</v>
       </c>
       <c r="N37" t="s">
-        <v>1854</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -7798,28 +7768,28 @@
         <v>784</v>
       </c>
       <c r="G38" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="H38" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="I38" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="J38" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
       <c r="K38" t="s">
-        <v>1443</v>
+        <v>1433</v>
       </c>
       <c r="L38" t="s">
-        <v>1614</v>
+        <v>1604</v>
       </c>
       <c r="M38" t="s">
-        <v>1655</v>
+        <v>1645</v>
       </c>
       <c r="N38" t="s">
-        <v>1855</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -7845,22 +7815,22 @@
         <v>273</v>
       </c>
       <c r="I39" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="J39" t="s">
-        <v>1303</v>
+        <v>1293</v>
       </c>
       <c r="K39" t="s">
-        <v>1444</v>
+        <v>1434</v>
       </c>
       <c r="L39" t="s">
-        <v>1615</v>
+        <v>1605</v>
       </c>
       <c r="M39" t="s">
-        <v>1656</v>
+        <v>1646</v>
       </c>
       <c r="N39" t="s">
-        <v>1856</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -7883,28 +7853,28 @@
         <v>786</v>
       </c>
       <c r="G40" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="H40" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="I40" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="J40" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="K40" t="s">
-        <v>1445</v>
+        <v>1435</v>
       </c>
       <c r="L40" t="s">
-        <v>1345</v>
+        <v>1335</v>
       </c>
       <c r="M40" t="s">
-        <v>1657</v>
+        <v>1647</v>
       </c>
       <c r="N40" t="s">
-        <v>1857</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -7927,28 +7897,28 @@
         <v>787</v>
       </c>
       <c r="G41" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="H41" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="I41" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="J41" t="s">
-        <v>1305</v>
+        <v>1295</v>
       </c>
       <c r="K41" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="L41" t="s">
-        <v>1382</v>
+        <v>1372</v>
       </c>
       <c r="M41" t="s">
-        <v>1658</v>
+        <v>1648</v>
       </c>
       <c r="N41" t="s">
-        <v>1858</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -7971,28 +7941,28 @@
         <v>788</v>
       </c>
       <c r="G42" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="H42" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="I42" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
       <c r="J42" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="K42" t="s">
-        <v>1447</v>
+        <v>1437</v>
       </c>
       <c r="L42" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="M42" t="s">
-        <v>1659</v>
+        <v>1649</v>
       </c>
       <c r="N42" t="s">
-        <v>1859</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -8015,28 +7985,28 @@
         <v>789</v>
       </c>
       <c r="G43" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="H43" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="I43" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="J43" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="K43" t="s">
-        <v>1448</v>
+        <v>1438</v>
       </c>
       <c r="L43" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="M43" t="s">
-        <v>1660</v>
+        <v>1650</v>
       </c>
       <c r="N43" t="s">
-        <v>1860</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -8062,22 +8032,22 @@
         <v>249</v>
       </c>
       <c r="I44" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="J44" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="K44" t="s">
-        <v>1449</v>
+        <v>1439</v>
       </c>
       <c r="L44" t="s">
-        <v>1382</v>
+        <v>1372</v>
       </c>
       <c r="M44" t="s">
-        <v>1661</v>
+        <v>1651</v>
       </c>
       <c r="N44" t="s">
-        <v>1861</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -8103,22 +8073,22 @@
         <v>249</v>
       </c>
       <c r="I45" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="J45" t="s">
-        <v>1309</v>
+        <v>1299</v>
       </c>
       <c r="K45" t="s">
-        <v>1450</v>
+        <v>1440</v>
       </c>
       <c r="L45" t="s">
-        <v>1616</v>
+        <v>1606</v>
       </c>
       <c r="M45" t="s">
-        <v>1662</v>
+        <v>1652</v>
       </c>
       <c r="N45" t="s">
-        <v>1862</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -8141,28 +8111,28 @@
         <v>792</v>
       </c>
       <c r="G46" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="H46" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="I46" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
       <c r="J46" t="s">
-        <v>1310</v>
+        <v>1300</v>
       </c>
       <c r="K46" t="s">
-        <v>1451</v>
+        <v>1441</v>
       </c>
       <c r="L46" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="M46" t="s">
-        <v>1663</v>
+        <v>1653</v>
       </c>
       <c r="N46" t="s">
-        <v>1863</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -8188,22 +8158,22 @@
         <v>249</v>
       </c>
       <c r="I47" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
       <c r="J47" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="K47" t="s">
-        <v>1452</v>
+        <v>1442</v>
       </c>
       <c r="L47" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="M47" t="s">
-        <v>1664</v>
+        <v>1654</v>
       </c>
       <c r="N47" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -8226,28 +8196,28 @@
         <v>794</v>
       </c>
       <c r="G48" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="H48" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="I48" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
       <c r="J48" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="K48" t="s">
-        <v>1453</v>
+        <v>1443</v>
       </c>
       <c r="L48" t="s">
-        <v>1345</v>
+        <v>1335</v>
       </c>
       <c r="M48" t="s">
-        <v>1665</v>
+        <v>1655</v>
       </c>
       <c r="N48" t="s">
-        <v>1864</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -8270,25 +8240,25 @@
         <v>795</v>
       </c>
       <c r="G49" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="H49" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="I49" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="J49" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="K49" t="s">
-        <v>1454</v>
+        <v>1444</v>
       </c>
       <c r="L49" t="s">
-        <v>1618</v>
+        <v>1608</v>
       </c>
       <c r="M49" t="s">
-        <v>1666</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -8314,22 +8284,22 @@
         <v>281</v>
       </c>
       <c r="I50" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
       <c r="J50" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="K50" t="s">
-        <v>1455</v>
+        <v>1445</v>
       </c>
       <c r="L50" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
       <c r="M50" t="s">
-        <v>1667</v>
+        <v>1657</v>
       </c>
       <c r="N50" t="s">
-        <v>1865</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -8355,22 +8325,22 @@
         <v>249</v>
       </c>
       <c r="I51" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="J51" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="K51" t="s">
-        <v>1456</v>
+        <v>1446</v>
       </c>
       <c r="L51" t="s">
-        <v>1340</v>
+        <v>1330</v>
       </c>
       <c r="M51" t="s">
-        <v>1668</v>
+        <v>1658</v>
       </c>
       <c r="N51" t="s">
-        <v>1866</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -8396,22 +8366,22 @@
         <v>282</v>
       </c>
       <c r="I52" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
       <c r="J52" t="s">
-        <v>1316</v>
+        <v>1306</v>
       </c>
       <c r="K52" t="s">
-        <v>1457</v>
+        <v>1447</v>
       </c>
       <c r="L52" t="s">
-        <v>1403</v>
+        <v>1393</v>
       </c>
       <c r="M52" t="s">
-        <v>1669</v>
+        <v>1659</v>
       </c>
       <c r="N52" t="s">
-        <v>1867</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -8434,28 +8404,28 @@
         <v>799</v>
       </c>
       <c r="G53" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="H53" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="I53" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="J53" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="K53" t="s">
-        <v>1458</v>
+        <v>1448</v>
       </c>
       <c r="L53" t="s">
-        <v>1401</v>
+        <v>1391</v>
       </c>
       <c r="M53" t="s">
-        <v>1670</v>
+        <v>1660</v>
       </c>
       <c r="N53" t="s">
-        <v>1358</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -8481,19 +8451,19 @@
         <v>249</v>
       </c>
       <c r="I54" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="J54" t="s">
-        <v>1318</v>
+        <v>1308</v>
       </c>
       <c r="K54" t="s">
-        <v>1459</v>
+        <v>1449</v>
       </c>
       <c r="M54" t="s">
-        <v>1671</v>
+        <v>1661</v>
       </c>
       <c r="N54" t="s">
-        <v>1868</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -8516,28 +8486,28 @@
         <v>801</v>
       </c>
       <c r="G55" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="H55" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="I55" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="J55" t="s">
-        <v>1319</v>
+        <v>1309</v>
       </c>
       <c r="K55" t="s">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="L55" t="s">
-        <v>1326</v>
+        <v>1316</v>
       </c>
       <c r="M55" t="s">
-        <v>1672</v>
+        <v>1662</v>
       </c>
       <c r="N55" t="s">
-        <v>1869</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -8563,22 +8533,22 @@
         <v>249</v>
       </c>
       <c r="I56" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="J56" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="K56" t="s">
-        <v>1461</v>
+        <v>1451</v>
       </c>
       <c r="L56" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="M56" t="s">
-        <v>1673</v>
+        <v>1663</v>
       </c>
       <c r="N56" t="s">
-        <v>1870</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -8604,13 +8574,13 @@
         <v>285</v>
       </c>
       <c r="I57" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="K57" t="s">
-        <v>1462</v>
+        <v>1452</v>
       </c>
       <c r="M57" t="s">
-        <v>1674</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -8636,22 +8606,22 @@
         <v>286</v>
       </c>
       <c r="I58" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="J58" t="s">
-        <v>1321</v>
+        <v>1311</v>
       </c>
       <c r="K58" t="s">
-        <v>1463</v>
+        <v>1453</v>
       </c>
       <c r="L58" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
       <c r="M58" t="s">
-        <v>1675</v>
+        <v>1665</v>
       </c>
       <c r="N58" t="s">
-        <v>1871</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -8674,28 +8644,28 @@
         <v>805</v>
       </c>
       <c r="G59" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="H59" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="I59" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="J59" t="s">
-        <v>1322</v>
+        <v>1312</v>
       </c>
       <c r="K59" t="s">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="L59" t="s">
-        <v>1619</v>
+        <v>1609</v>
       </c>
       <c r="M59" t="s">
-        <v>1676</v>
+        <v>1666</v>
       </c>
       <c r="N59" t="s">
-        <v>1872</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -8721,13 +8691,13 @@
         <v>249</v>
       </c>
       <c r="I60" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="K60" t="s">
-        <v>1465</v>
+        <v>1455</v>
       </c>
       <c r="M60" t="s">
-        <v>1677</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -8753,22 +8723,22 @@
         <v>288</v>
       </c>
       <c r="I61" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="J61" t="s">
-        <v>1323</v>
+        <v>1313</v>
       </c>
       <c r="K61" t="s">
-        <v>1466</v>
+        <v>1456</v>
       </c>
       <c r="L61" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="M61" t="s">
-        <v>1678</v>
+        <v>1668</v>
       </c>
       <c r="N61" t="s">
-        <v>1873</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -8794,22 +8764,22 @@
         <v>249</v>
       </c>
       <c r="I62" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="J62" t="s">
-        <v>1324</v>
+        <v>1314</v>
       </c>
       <c r="K62" t="s">
-        <v>1467</v>
+        <v>1457</v>
       </c>
       <c r="L62" t="s">
-        <v>1345</v>
+        <v>1335</v>
       </c>
       <c r="M62" t="s">
-        <v>1679</v>
+        <v>1669</v>
       </c>
       <c r="N62" t="s">
-        <v>1874</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -8832,28 +8802,28 @@
         <v>809</v>
       </c>
       <c r="G63" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="H63" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="I63" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="J63" t="s">
-        <v>1325</v>
+        <v>1315</v>
       </c>
       <c r="K63" t="s">
-        <v>1468</v>
+        <v>1458</v>
       </c>
       <c r="L63" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="M63" t="s">
-        <v>1680</v>
+        <v>1670</v>
       </c>
       <c r="N63" t="s">
-        <v>1875</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -8879,22 +8849,22 @@
         <v>290</v>
       </c>
       <c r="I64" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
       <c r="J64" t="s">
-        <v>1326</v>
+        <v>1316</v>
       </c>
       <c r="K64" t="s">
-        <v>1469</v>
+        <v>1459</v>
       </c>
       <c r="L64" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="M64" t="s">
-        <v>1681</v>
+        <v>1671</v>
       </c>
       <c r="N64" t="s">
-        <v>1876</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -8920,22 +8890,22 @@
         <v>291</v>
       </c>
       <c r="I65" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="J65" t="s">
-        <v>1327</v>
+        <v>1317</v>
       </c>
       <c r="K65" t="s">
-        <v>1470</v>
+        <v>1460</v>
       </c>
       <c r="L65" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="M65" t="s">
-        <v>1682</v>
+        <v>1672</v>
       </c>
       <c r="N65" t="s">
-        <v>1877</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -8958,28 +8928,28 @@
         <v>812</v>
       </c>
       <c r="G66" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="H66" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="I66" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="J66" t="s">
-        <v>1328</v>
+        <v>1318</v>
       </c>
       <c r="K66" t="s">
-        <v>1471</v>
+        <v>1461</v>
       </c>
       <c r="L66" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="M66" t="s">
-        <v>1683</v>
+        <v>1673</v>
       </c>
       <c r="N66" t="s">
-        <v>1346</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -9005,25 +8975,25 @@
         <v>534</v>
       </c>
       <c r="H67" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="I67" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
       <c r="J67" t="s">
-        <v>1329</v>
+        <v>1319</v>
       </c>
       <c r="K67" t="s">
-        <v>1472</v>
+        <v>1462</v>
       </c>
       <c r="L67" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="M67" t="s">
-        <v>1684</v>
+        <v>1674</v>
       </c>
       <c r="N67" t="s">
-        <v>1878</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -9049,19 +9019,19 @@
         <v>294</v>
       </c>
       <c r="I68" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="J68" t="s">
-        <v>1330</v>
+        <v>1320</v>
       </c>
       <c r="K68" t="s">
-        <v>1473</v>
+        <v>1463</v>
       </c>
       <c r="M68" t="s">
-        <v>1685</v>
+        <v>1675</v>
       </c>
       <c r="N68" t="s">
-        <v>1879</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -9084,25 +9054,25 @@
         <v>815</v>
       </c>
       <c r="G69" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="H69" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="I69" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="J69" t="s">
-        <v>1331</v>
+        <v>1321</v>
       </c>
       <c r="K69" t="s">
-        <v>1474</v>
+        <v>1464</v>
       </c>
       <c r="M69" t="s">
-        <v>1686</v>
+        <v>1676</v>
       </c>
       <c r="N69" t="s">
-        <v>1880</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -9128,22 +9098,22 @@
         <v>296</v>
       </c>
       <c r="I70" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
       <c r="J70" t="s">
-        <v>1332</v>
+        <v>1322</v>
       </c>
       <c r="K70" t="s">
-        <v>1475</v>
+        <v>1465</v>
       </c>
       <c r="L70" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
       <c r="M70" t="s">
-        <v>1687</v>
+        <v>1677</v>
       </c>
       <c r="N70" t="s">
-        <v>1881</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -9169,22 +9139,22 @@
         <v>297</v>
       </c>
       <c r="I71" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
       <c r="J71" t="s">
-        <v>1333</v>
+        <v>1323</v>
       </c>
       <c r="K71" t="s">
-        <v>1476</v>
+        <v>1466</v>
       </c>
       <c r="L71" t="s">
-        <v>1620</v>
+        <v>1610</v>
       </c>
       <c r="M71" t="s">
-        <v>1688</v>
+        <v>1678</v>
       </c>
       <c r="N71" t="s">
-        <v>1882</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -9207,28 +9177,28 @@
         <v>818</v>
       </c>
       <c r="G72" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="H72" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="I72" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="J72" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
       <c r="K72" t="s">
-        <v>1477</v>
+        <v>1467</v>
       </c>
       <c r="L72" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="M72" t="s">
-        <v>1689</v>
+        <v>1679</v>
       </c>
       <c r="N72" t="s">
-        <v>1883</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -9251,25 +9221,25 @@
         <v>819</v>
       </c>
       <c r="G73" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="H73" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="I73" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
       <c r="J73" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="K73" t="s">
-        <v>1478</v>
+        <v>1468</v>
       </c>
       <c r="M73" t="s">
-        <v>1690</v>
+        <v>1680</v>
       </c>
       <c r="N73" t="s">
-        <v>1884</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -9292,28 +9262,28 @@
         <v>820</v>
       </c>
       <c r="G74" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="H74" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="I74" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="J74" t="s">
-        <v>1336</v>
+        <v>1326</v>
       </c>
       <c r="K74" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
       <c r="L74" t="s">
-        <v>1621</v>
+        <v>1611</v>
       </c>
       <c r="M74" t="s">
-        <v>1691</v>
+        <v>1681</v>
       </c>
       <c r="N74" t="s">
-        <v>1885</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -9339,22 +9309,22 @@
         <v>249</v>
       </c>
       <c r="I75" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="J75" t="s">
-        <v>1337</v>
+        <v>1327</v>
       </c>
       <c r="K75" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
       <c r="L75" t="s">
-        <v>1406</v>
+        <v>1396</v>
       </c>
       <c r="M75" t="s">
-        <v>1692</v>
+        <v>1682</v>
       </c>
       <c r="N75" t="s">
-        <v>1886</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -9377,28 +9347,28 @@
         <v>822</v>
       </c>
       <c r="G76" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="H76" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="I76" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="J76" t="s">
-        <v>1338</v>
+        <v>1328</v>
       </c>
       <c r="K76" t="s">
-        <v>1481</v>
+        <v>1471</v>
       </c>
       <c r="L76" t="s">
-        <v>1406</v>
+        <v>1396</v>
       </c>
       <c r="M76" t="s">
-        <v>1693</v>
+        <v>1683</v>
       </c>
       <c r="N76" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -9421,28 +9391,28 @@
         <v>823</v>
       </c>
       <c r="G77" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="H77" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="I77" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="J77" t="s">
-        <v>1339</v>
+        <v>1329</v>
       </c>
       <c r="K77" t="s">
-        <v>1482</v>
+        <v>1472</v>
       </c>
       <c r="L77" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
       <c r="M77" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="N77" t="s">
-        <v>1888</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -9468,22 +9438,22 @@
         <v>303</v>
       </c>
       <c r="I78" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
       <c r="J78" t="s">
-        <v>1340</v>
+        <v>1330</v>
       </c>
       <c r="K78" t="s">
-        <v>1483</v>
+        <v>1473</v>
       </c>
       <c r="L78" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="M78" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="N78" t="s">
-        <v>1889</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -9509,22 +9479,22 @@
         <v>304</v>
       </c>
       <c r="I79" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="J79" t="s">
-        <v>1341</v>
+        <v>1331</v>
       </c>
       <c r="K79" t="s">
-        <v>1484</v>
+        <v>1474</v>
       </c>
       <c r="L79" t="s">
-        <v>1326</v>
+        <v>1316</v>
       </c>
       <c r="M79" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="N79" t="s">
-        <v>1890</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -9550,22 +9520,22 @@
         <v>305</v>
       </c>
       <c r="I80" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="J80" t="s">
-        <v>1342</v>
+        <v>1332</v>
       </c>
       <c r="K80" t="s">
-        <v>1485</v>
+        <v>1475</v>
       </c>
       <c r="L80" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
       <c r="M80" t="s">
-        <v>1697</v>
+        <v>1687</v>
       </c>
       <c r="N80" t="s">
-        <v>1891</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -9591,22 +9561,22 @@
         <v>306</v>
       </c>
       <c r="I81" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
       <c r="J81" t="s">
-        <v>1343</v>
+        <v>1333</v>
       </c>
       <c r="K81" t="s">
-        <v>1486</v>
+        <v>1476</v>
       </c>
       <c r="L81" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="M81" t="s">
-        <v>1698</v>
+        <v>1688</v>
       </c>
       <c r="N81" t="s">
-        <v>1892</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -9629,28 +9599,28 @@
         <v>828</v>
       </c>
       <c r="G82" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="H82" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="I82" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="J82" t="s">
-        <v>1344</v>
+        <v>1334</v>
       </c>
       <c r="K82" t="s">
-        <v>1487</v>
+        <v>1477</v>
       </c>
       <c r="L82" t="s">
-        <v>1406</v>
+        <v>1396</v>
       </c>
       <c r="M82" t="s">
-        <v>1699</v>
+        <v>1689</v>
       </c>
       <c r="N82" t="s">
-        <v>1893</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -9676,22 +9646,22 @@
         <v>282</v>
       </c>
       <c r="H83" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="I83" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="J83" t="s">
-        <v>1345</v>
+        <v>1335</v>
       </c>
       <c r="K83" t="s">
-        <v>1488</v>
+        <v>1478</v>
       </c>
       <c r="M83" t="s">
-        <v>1700</v>
+        <v>1690</v>
       </c>
       <c r="N83" t="s">
-        <v>1602</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -9717,22 +9687,22 @@
         <v>249</v>
       </c>
       <c r="I84" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="J84" t="s">
-        <v>1346</v>
+        <v>1336</v>
       </c>
       <c r="K84" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
       <c r="L84" t="s">
-        <v>1605</v>
+        <v>1595</v>
       </c>
       <c r="M84" t="s">
-        <v>1701</v>
+        <v>1691</v>
       </c>
       <c r="N84" t="s">
-        <v>1894</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -9758,22 +9728,22 @@
         <v>309</v>
       </c>
       <c r="I85" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="J85" t="s">
-        <v>1347</v>
+        <v>1337</v>
       </c>
       <c r="K85" t="s">
-        <v>1490</v>
+        <v>1480</v>
       </c>
       <c r="L85" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="M85" t="s">
-        <v>1702</v>
+        <v>1692</v>
       </c>
       <c r="N85" t="s">
-        <v>1895</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -9799,22 +9769,22 @@
         <v>343</v>
       </c>
       <c r="H86" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="I86" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="J86" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="K86" t="s">
-        <v>1491</v>
+        <v>1481</v>
       </c>
       <c r="M86" t="s">
-        <v>1703</v>
+        <v>1693</v>
       </c>
       <c r="N86" t="s">
-        <v>1896</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -9840,19 +9810,19 @@
         <v>249</v>
       </c>
       <c r="I87" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="J87" t="s">
-        <v>1333</v>
+        <v>1323</v>
       </c>
       <c r="K87" t="s">
-        <v>1492</v>
+        <v>1482</v>
       </c>
       <c r="L87" t="s">
-        <v>1359</v>
+        <v>1349</v>
       </c>
       <c r="M87" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -9878,13 +9848,13 @@
         <v>311</v>
       </c>
       <c r="I88" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="K88" t="s">
-        <v>1493</v>
+        <v>1483</v>
       </c>
       <c r="M88" t="s">
-        <v>1705</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -9910,22 +9880,22 @@
         <v>312</v>
       </c>
       <c r="I89" t="s">
-        <v>1144</v>
+        <v>1134</v>
       </c>
       <c r="J89" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="K89" t="s">
-        <v>1494</v>
+        <v>1484</v>
       </c>
       <c r="L89" t="s">
-        <v>1394</v>
+        <v>1384</v>
       </c>
       <c r="M89" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="N89" t="s">
-        <v>1897</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -9948,28 +9918,28 @@
         <v>836</v>
       </c>
       <c r="G90" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="H90" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="I90" t="s">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="J90" t="s">
-        <v>1350</v>
+        <v>1340</v>
       </c>
       <c r="K90" t="s">
-        <v>1495</v>
+        <v>1485</v>
       </c>
       <c r="L90" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="M90" t="s">
-        <v>1707</v>
+        <v>1697</v>
       </c>
       <c r="N90" t="s">
-        <v>1898</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -9995,22 +9965,22 @@
         <v>249</v>
       </c>
       <c r="I91" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="J91" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="K91" t="s">
-        <v>1496</v>
+        <v>1486</v>
       </c>
       <c r="L91" t="s">
-        <v>1405</v>
+        <v>1395</v>
       </c>
       <c r="M91" t="s">
-        <v>1708</v>
+        <v>1698</v>
       </c>
       <c r="N91" t="s">
-        <v>1899</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -10036,22 +10006,22 @@
         <v>317</v>
       </c>
       <c r="H92" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="I92" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
       <c r="J92" t="s">
-        <v>1352</v>
+        <v>1342</v>
       </c>
       <c r="K92" t="s">
-        <v>1497</v>
+        <v>1487</v>
       </c>
       <c r="L92" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
       <c r="M92" t="s">
-        <v>1709</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -10077,22 +10047,22 @@
         <v>315</v>
       </c>
       <c r="I93" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="J93" t="s">
-        <v>1353</v>
+        <v>1343</v>
       </c>
       <c r="K93" t="s">
-        <v>1498</v>
+        <v>1488</v>
       </c>
       <c r="L93" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="M93" t="s">
-        <v>1710</v>
+        <v>1700</v>
       </c>
       <c r="N93" t="s">
-        <v>1900</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -10118,13 +10088,13 @@
         <v>316</v>
       </c>
       <c r="I94" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
       <c r="K94" t="s">
-        <v>1499</v>
+        <v>1489</v>
       </c>
       <c r="M94" t="s">
-        <v>1711</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -10150,22 +10120,22 @@
         <v>317</v>
       </c>
       <c r="I95" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="J95" t="s">
-        <v>1354</v>
+        <v>1344</v>
       </c>
       <c r="K95" t="s">
-        <v>1500</v>
+        <v>1490</v>
       </c>
       <c r="L95" t="s">
-        <v>1401</v>
+        <v>1391</v>
       </c>
       <c r="M95" t="s">
-        <v>1712</v>
+        <v>1702</v>
       </c>
       <c r="N95" t="s">
-        <v>1901</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -10191,22 +10161,22 @@
         <v>318</v>
       </c>
       <c r="I96" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
       <c r="J96" t="s">
-        <v>1355</v>
+        <v>1345</v>
       </c>
       <c r="K96" t="s">
-        <v>1501</v>
+        <v>1491</v>
       </c>
       <c r="L96" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="M96" t="s">
-        <v>1713</v>
+        <v>1703</v>
       </c>
       <c r="N96" t="s">
-        <v>1902</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -10232,22 +10202,22 @@
         <v>288</v>
       </c>
       <c r="I97" t="s">
-        <v>1152</v>
+        <v>1142</v>
       </c>
       <c r="J97" t="s">
-        <v>1356</v>
+        <v>1346</v>
       </c>
       <c r="K97" t="s">
-        <v>1502</v>
+        <v>1492</v>
       </c>
       <c r="L97" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="M97" t="s">
-        <v>1714</v>
+        <v>1704</v>
       </c>
       <c r="N97" t="s">
-        <v>1903</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -10270,28 +10240,28 @@
         <v>844</v>
       </c>
       <c r="G98" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="H98" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="I98" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="J98" t="s">
-        <v>1357</v>
+        <v>1347</v>
       </c>
       <c r="K98" t="s">
-        <v>1503</v>
+        <v>1493</v>
       </c>
       <c r="L98" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="M98" t="s">
-        <v>1715</v>
+        <v>1705</v>
       </c>
       <c r="N98" t="s">
-        <v>1904</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -10314,22 +10284,22 @@
         <v>845</v>
       </c>
       <c r="G99" t="s">
-        <v>1016</v>
+        <v>320</v>
       </c>
       <c r="I99" t="s">
-        <v>1154</v>
+        <v>1144</v>
       </c>
       <c r="J99" t="s">
-        <v>1358</v>
+        <v>1348</v>
       </c>
       <c r="K99" t="s">
-        <v>1504</v>
+        <v>1494</v>
       </c>
       <c r="M99" t="s">
-        <v>1716</v>
+        <v>1706</v>
       </c>
       <c r="N99" t="s">
-        <v>1905</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -10355,22 +10325,22 @@
         <v>321</v>
       </c>
       <c r="I100" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
       <c r="J100" t="s">
-        <v>1359</v>
+        <v>1349</v>
       </c>
       <c r="K100" t="s">
-        <v>1505</v>
+        <v>1495</v>
       </c>
       <c r="L100" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="M100" t="s">
-        <v>1717</v>
+        <v>1707</v>
       </c>
       <c r="N100" t="s">
-        <v>1347</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -10396,16 +10366,16 @@
         <v>311</v>
       </c>
       <c r="I101" t="s">
-        <v>1156</v>
+        <v>1146</v>
       </c>
       <c r="J101" t="s">
-        <v>1360</v>
+        <v>1350</v>
       </c>
       <c r="K101" t="s">
-        <v>1506</v>
+        <v>1496</v>
       </c>
       <c r="M101" t="s">
-        <v>1718</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -10431,13 +10401,13 @@
         <v>249</v>
       </c>
       <c r="I102" t="s">
-        <v>1157</v>
+        <v>1147</v>
       </c>
       <c r="K102" t="s">
-        <v>1507</v>
+        <v>1497</v>
       </c>
       <c r="M102" t="s">
-        <v>1719</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -10463,22 +10433,22 @@
         <v>322</v>
       </c>
       <c r="I103" t="s">
-        <v>1158</v>
+        <v>1148</v>
       </c>
       <c r="J103" t="s">
-        <v>1361</v>
+        <v>1351</v>
       </c>
       <c r="K103" t="s">
-        <v>1508</v>
+        <v>1498</v>
       </c>
       <c r="L103" t="s">
-        <v>1382</v>
+        <v>1372</v>
       </c>
       <c r="M103" t="s">
-        <v>1720</v>
+        <v>1710</v>
       </c>
       <c r="N103" t="s">
-        <v>1906</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -10501,25 +10471,25 @@
         <v>850</v>
       </c>
       <c r="G104" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="H104" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="I104" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="J104" t="s">
-        <v>1362</v>
+        <v>1352</v>
       </c>
       <c r="K104" t="s">
-        <v>1509</v>
+        <v>1499</v>
       </c>
       <c r="M104" t="s">
-        <v>1721</v>
+        <v>1711</v>
       </c>
       <c r="N104" t="s">
-        <v>1876</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -10545,13 +10515,13 @@
         <v>324</v>
       </c>
       <c r="I105" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="K105" t="s">
-        <v>1510</v>
+        <v>1500</v>
       </c>
       <c r="M105" t="s">
-        <v>1722</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -10574,28 +10544,28 @@
         <v>852</v>
       </c>
       <c r="G106" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H106" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1151</v>
+      </c>
+      <c r="J106" t="s">
+        <v>1353</v>
+      </c>
+      <c r="K106" t="s">
+        <v>1501</v>
+      </c>
+      <c r="L106" t="s">
         <v>1017</v>
       </c>
-      <c r="H106" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I106" t="s">
-        <v>1161</v>
-      </c>
-      <c r="J106" t="s">
-        <v>1363</v>
-      </c>
-      <c r="K106" t="s">
-        <v>1511</v>
-      </c>
-      <c r="L106" t="s">
-        <v>1027</v>
-      </c>
       <c r="M106" t="s">
-        <v>1723</v>
+        <v>1713</v>
       </c>
       <c r="N106" t="s">
-        <v>1618</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -10621,16 +10591,16 @@
         <v>326</v>
       </c>
       <c r="I107" t="s">
-        <v>1162</v>
+        <v>1152</v>
       </c>
       <c r="J107" t="s">
-        <v>1364</v>
+        <v>1354</v>
       </c>
       <c r="K107" t="s">
-        <v>1512</v>
+        <v>1502</v>
       </c>
       <c r="M107" t="s">
-        <v>1724</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -10656,22 +10626,22 @@
         <v>249</v>
       </c>
       <c r="I108" t="s">
-        <v>1163</v>
+        <v>1153</v>
       </c>
       <c r="J108" t="s">
-        <v>1365</v>
+        <v>1355</v>
       </c>
       <c r="K108" t="s">
-        <v>1513</v>
+        <v>1503</v>
       </c>
       <c r="L108" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="M108" t="s">
-        <v>1725</v>
+        <v>1715</v>
       </c>
       <c r="N108" t="s">
-        <v>1907</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -10697,13 +10667,13 @@
         <v>249</v>
       </c>
       <c r="I109" t="s">
-        <v>1164</v>
+        <v>1154</v>
       </c>
       <c r="K109" t="s">
-        <v>1514</v>
+        <v>1504</v>
       </c>
       <c r="M109" t="s">
-        <v>1726</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -10729,16 +10699,16 @@
         <v>327</v>
       </c>
       <c r="I110" t="s">
-        <v>1165</v>
+        <v>1155</v>
       </c>
       <c r="K110" t="s">
-        <v>1515</v>
+        <v>1505</v>
       </c>
       <c r="L110" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="M110" t="s">
-        <v>1727</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -10764,19 +10734,19 @@
         <v>328</v>
       </c>
       <c r="I111" t="s">
-        <v>1166</v>
+        <v>1156</v>
       </c>
       <c r="J111" t="s">
-        <v>1366</v>
+        <v>1356</v>
       </c>
       <c r="K111" t="s">
-        <v>1516</v>
+        <v>1506</v>
       </c>
       <c r="L111" t="s">
-        <v>1605</v>
+        <v>1595</v>
       </c>
       <c r="M111" t="s">
-        <v>1728</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -10802,25 +10772,25 @@
         <v>312</v>
       </c>
       <c r="H112" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="I112" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="J112" t="s">
-        <v>1367</v>
+        <v>1357</v>
       </c>
       <c r="K112" t="s">
-        <v>1517</v>
+        <v>1507</v>
       </c>
       <c r="L112" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="M112" t="s">
-        <v>1729</v>
+        <v>1719</v>
       </c>
       <c r="N112" t="s">
-        <v>1401</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -10846,19 +10816,19 @@
         <v>249</v>
       </c>
       <c r="I113" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="J113" t="s">
-        <v>1368</v>
+        <v>1358</v>
       </c>
       <c r="K113" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
       <c r="M113" t="s">
-        <v>1730</v>
+        <v>1720</v>
       </c>
       <c r="N113" t="s">
-        <v>1377</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -10881,28 +10851,28 @@
         <v>860</v>
       </c>
       <c r="G114" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="H114" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="I114" t="s">
-        <v>1169</v>
+        <v>1159</v>
       </c>
       <c r="J114" t="s">
-        <v>1369</v>
+        <v>1359</v>
       </c>
       <c r="K114" t="s">
-        <v>1518</v>
+        <v>1508</v>
       </c>
       <c r="L114" t="s">
-        <v>1394</v>
+        <v>1384</v>
       </c>
       <c r="M114" t="s">
-        <v>1731</v>
+        <v>1721</v>
       </c>
       <c r="N114" t="s">
-        <v>1908</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -10928,13 +10898,13 @@
         <v>331</v>
       </c>
       <c r="I115" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="K115" t="s">
-        <v>1519</v>
+        <v>1509</v>
       </c>
       <c r="M115" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -10960,19 +10930,19 @@
         <v>317</v>
       </c>
       <c r="I116" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="J116" t="s">
-        <v>1370</v>
+        <v>1360</v>
       </c>
       <c r="K116" t="s">
-        <v>1520</v>
+        <v>1510</v>
       </c>
       <c r="M116" t="s">
-        <v>1733</v>
+        <v>1723</v>
       </c>
       <c r="N116" t="s">
-        <v>1909</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -10998,25 +10968,25 @@
         <v>324</v>
       </c>
       <c r="H117" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="I117" t="s">
-        <v>1172</v>
+        <v>1162</v>
       </c>
       <c r="J117" t="s">
-        <v>1371</v>
+        <v>1361</v>
       </c>
       <c r="K117" t="s">
-        <v>1521</v>
+        <v>1511</v>
       </c>
       <c r="L117" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="M117" t="s">
-        <v>1734</v>
+        <v>1724</v>
       </c>
       <c r="N117" t="s">
-        <v>1596</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -11042,19 +11012,19 @@
         <v>333</v>
       </c>
       <c r="I118" t="s">
-        <v>1173</v>
+        <v>1163</v>
       </c>
       <c r="J118" t="s">
-        <v>1372</v>
+        <v>1362</v>
       </c>
       <c r="K118" t="s">
-        <v>1522</v>
+        <v>1512</v>
       </c>
       <c r="M118" t="s">
-        <v>1735</v>
+        <v>1725</v>
       </c>
       <c r="N118" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -11080,25 +11050,25 @@
         <v>344</v>
       </c>
       <c r="H119" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="I119" t="s">
-        <v>1174</v>
+        <v>1164</v>
       </c>
       <c r="J119" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="K119" t="s">
-        <v>1523</v>
+        <v>1513</v>
       </c>
       <c r="L119" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="M119" t="s">
-        <v>1736</v>
+        <v>1726</v>
       </c>
       <c r="N119" t="s">
-        <v>1377</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -11124,22 +11094,22 @@
         <v>335</v>
       </c>
       <c r="I120" t="s">
-        <v>1175</v>
+        <v>1165</v>
       </c>
       <c r="J120" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="K120" t="s">
-        <v>1524</v>
+        <v>1514</v>
       </c>
       <c r="L120" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="M120" t="s">
-        <v>1737</v>
+        <v>1727</v>
       </c>
       <c r="N120" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -11165,22 +11135,22 @@
         <v>249</v>
       </c>
       <c r="I121" t="s">
-        <v>1176</v>
+        <v>1166</v>
       </c>
       <c r="J121" t="s">
-        <v>1373</v>
+        <v>1363</v>
       </c>
       <c r="K121" t="s">
-        <v>1525</v>
+        <v>1515</v>
       </c>
       <c r="L121" t="s">
-        <v>1401</v>
+        <v>1391</v>
       </c>
       <c r="M121" t="s">
-        <v>1738</v>
+        <v>1728</v>
       </c>
       <c r="N121" t="s">
-        <v>1910</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -11206,13 +11176,13 @@
         <v>249</v>
       </c>
       <c r="I122" t="s">
-        <v>1177</v>
+        <v>1167</v>
       </c>
       <c r="K122" t="s">
-        <v>1526</v>
+        <v>1516</v>
       </c>
       <c r="M122" t="s">
-        <v>1739</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -11238,22 +11208,22 @@
         <v>333</v>
       </c>
       <c r="I123" t="s">
-        <v>1178</v>
+        <v>1168</v>
       </c>
       <c r="J123" t="s">
-        <v>1374</v>
+        <v>1364</v>
       </c>
       <c r="K123" t="s">
-        <v>1527</v>
+        <v>1517</v>
       </c>
       <c r="L123" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
       <c r="M123" t="s">
-        <v>1740</v>
+        <v>1730</v>
       </c>
       <c r="N123" t="s">
-        <v>1909</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -11279,22 +11249,22 @@
         <v>326</v>
       </c>
       <c r="I124" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
       <c r="J124" t="s">
-        <v>1375</v>
+        <v>1365</v>
       </c>
       <c r="K124" t="s">
-        <v>1528</v>
+        <v>1518</v>
       </c>
       <c r="L124" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="M124" t="s">
-        <v>1741</v>
+        <v>1731</v>
       </c>
       <c r="N124" t="s">
-        <v>1911</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -11320,13 +11290,13 @@
         <v>317</v>
       </c>
       <c r="I125" t="s">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="K125" t="s">
-        <v>1529</v>
+        <v>1519</v>
       </c>
       <c r="M125" t="s">
-        <v>1742</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -11352,13 +11322,13 @@
         <v>290</v>
       </c>
       <c r="I126" t="s">
-        <v>1181</v>
+        <v>1171</v>
       </c>
       <c r="K126" t="s">
-        <v>1530</v>
+        <v>1520</v>
       </c>
       <c r="M126" t="s">
-        <v>1743</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -11384,22 +11354,22 @@
         <v>336</v>
       </c>
       <c r="I127" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
       <c r="J127" t="s">
-        <v>1376</v>
+        <v>1366</v>
       </c>
       <c r="K127" t="s">
-        <v>1531</v>
+        <v>1521</v>
       </c>
       <c r="L127" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="M127" t="s">
-        <v>1744</v>
+        <v>1734</v>
       </c>
       <c r="N127" t="s">
-        <v>1912</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -11425,22 +11395,22 @@
         <v>290</v>
       </c>
       <c r="I128" t="s">
-        <v>1183</v>
+        <v>1173</v>
       </c>
       <c r="J128" t="s">
-        <v>1377</v>
+        <v>1367</v>
       </c>
       <c r="K128" t="s">
-        <v>1532</v>
+        <v>1522</v>
       </c>
       <c r="L128" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="M128" t="s">
-        <v>1745</v>
+        <v>1735</v>
       </c>
       <c r="N128" t="s">
-        <v>1615</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -11466,13 +11436,13 @@
         <v>318</v>
       </c>
       <c r="I129" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
       <c r="K129" t="s">
-        <v>1533</v>
+        <v>1523</v>
       </c>
       <c r="M129" t="s">
-        <v>1746</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -11498,25 +11468,25 @@
         <v>744</v>
       </c>
       <c r="H130" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="I130" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
       <c r="J130" t="s">
-        <v>1378</v>
+        <v>1368</v>
       </c>
       <c r="K130" t="s">
-        <v>1534</v>
+        <v>1524</v>
       </c>
       <c r="L130" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
       <c r="M130" t="s">
-        <v>1747</v>
+        <v>1737</v>
       </c>
       <c r="N130" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -11542,22 +11512,22 @@
         <v>321</v>
       </c>
       <c r="H131" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="I131" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
       <c r="J131" t="s">
-        <v>1379</v>
+        <v>1369</v>
       </c>
       <c r="K131" t="s">
-        <v>1535</v>
+        <v>1525</v>
       </c>
       <c r="L131" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="M131" t="s">
-        <v>1748</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -11583,13 +11553,13 @@
         <v>316</v>
       </c>
       <c r="I132" t="s">
-        <v>1187</v>
+        <v>1177</v>
       </c>
       <c r="K132" t="s">
-        <v>1536</v>
+        <v>1526</v>
       </c>
       <c r="M132" t="s">
-        <v>1749</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -11615,16 +11585,16 @@
         <v>339</v>
       </c>
       <c r="I133" t="s">
-        <v>1188</v>
+        <v>1178</v>
       </c>
       <c r="K133" t="s">
-        <v>1537</v>
+        <v>1527</v>
       </c>
       <c r="L133" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="M133" t="s">
-        <v>1750</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -11650,19 +11620,19 @@
         <v>249</v>
       </c>
       <c r="I134" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
       <c r="J134" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K134" t="s">
+        <v>1528</v>
+      </c>
+      <c r="M134" t="s">
+        <v>1741</v>
+      </c>
+      <c r="N134" t="s">
         <v>1380</v>
-      </c>
-      <c r="K134" t="s">
-        <v>1538</v>
-      </c>
-      <c r="M134" t="s">
-        <v>1751</v>
-      </c>
-      <c r="N134" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -11688,19 +11658,19 @@
         <v>317</v>
       </c>
       <c r="I135" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="J135" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="K135" t="s">
-        <v>1539</v>
+        <v>1529</v>
       </c>
       <c r="M135" t="s">
-        <v>1752</v>
+        <v>1742</v>
       </c>
       <c r="N135" t="s">
-        <v>1913</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -11726,22 +11696,22 @@
         <v>346</v>
       </c>
       <c r="H136" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="I136" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
       <c r="J136" t="s">
-        <v>1382</v>
+        <v>1372</v>
       </c>
       <c r="K136" t="s">
-        <v>1540</v>
+        <v>1530</v>
       </c>
       <c r="M136" t="s">
-        <v>1753</v>
+        <v>1743</v>
       </c>
       <c r="N136" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -11767,22 +11737,22 @@
         <v>336</v>
       </c>
       <c r="I137" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
       <c r="J137" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="K137" t="s">
-        <v>1541</v>
+        <v>1531</v>
       </c>
       <c r="L137" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="M137" t="s">
-        <v>1754</v>
+        <v>1744</v>
       </c>
       <c r="N137" t="s">
-        <v>1914</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -11808,22 +11778,22 @@
         <v>249</v>
       </c>
       <c r="I138" t="s">
-        <v>1193</v>
+        <v>1183</v>
       </c>
       <c r="J138" t="s">
-        <v>1383</v>
+        <v>1373</v>
       </c>
       <c r="K138" t="s">
-        <v>1542</v>
+        <v>1532</v>
       </c>
       <c r="L138" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="M138" t="s">
-        <v>1755</v>
+        <v>1745</v>
       </c>
       <c r="N138" t="s">
-        <v>1913</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -11846,28 +11816,28 @@
         <v>885</v>
       </c>
       <c r="G139" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="H139" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="I139" t="s">
-        <v>1194</v>
+        <v>1184</v>
       </c>
       <c r="J139" t="s">
-        <v>1384</v>
+        <v>1374</v>
       </c>
       <c r="K139" t="s">
-        <v>1543</v>
+        <v>1533</v>
       </c>
       <c r="L139" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="M139" t="s">
-        <v>1756</v>
+        <v>1746</v>
       </c>
       <c r="N139" t="s">
-        <v>1915</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -11893,19 +11863,19 @@
         <v>339</v>
       </c>
       <c r="I140" t="s">
-        <v>1195</v>
+        <v>1185</v>
       </c>
       <c r="J140" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="K140" t="s">
-        <v>1544</v>
+        <v>1534</v>
       </c>
       <c r="M140" t="s">
-        <v>1757</v>
+        <v>1747</v>
       </c>
       <c r="N140" t="s">
-        <v>1358</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -11931,13 +11901,13 @@
         <v>342</v>
       </c>
       <c r="I141" t="s">
-        <v>1196</v>
+        <v>1186</v>
       </c>
       <c r="K141" t="s">
-        <v>1545</v>
+        <v>1535</v>
       </c>
       <c r="M141" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -11963,19 +11933,19 @@
         <v>249</v>
       </c>
       <c r="I142" t="s">
-        <v>1197</v>
+        <v>1187</v>
       </c>
       <c r="J142" t="s">
-        <v>1385</v>
+        <v>1375</v>
       </c>
       <c r="K142" t="s">
-        <v>1546</v>
+        <v>1536</v>
       </c>
       <c r="M142" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
       <c r="N142" t="s">
-        <v>1916</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -12001,19 +11971,19 @@
         <v>249</v>
       </c>
       <c r="I143" t="s">
-        <v>1198</v>
+        <v>1188</v>
       </c>
       <c r="J143" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
       <c r="K143" t="s">
         <v>744</v>
       </c>
       <c r="L143" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="M143" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -12039,13 +12009,13 @@
         <v>282</v>
       </c>
       <c r="I144" t="s">
-        <v>1199</v>
+        <v>1189</v>
       </c>
       <c r="K144" t="s">
-        <v>1547</v>
+        <v>1537</v>
       </c>
       <c r="M144" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -12071,13 +12041,13 @@
         <v>249</v>
       </c>
       <c r="I145" t="s">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="K145" t="s">
-        <v>1548</v>
+        <v>1538</v>
       </c>
       <c r="M145" t="s">
-        <v>1762</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -12103,13 +12073,13 @@
         <v>249</v>
       </c>
       <c r="I146" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
       <c r="K146" t="s">
-        <v>1549</v>
+        <v>1539</v>
       </c>
       <c r="M146" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -12135,16 +12105,16 @@
         <v>343</v>
       </c>
       <c r="I147" t="s">
-        <v>1202</v>
+        <v>1192</v>
       </c>
       <c r="J147" t="s">
-        <v>1387</v>
+        <v>1377</v>
       </c>
       <c r="K147" t="s">
-        <v>1550</v>
+        <v>1540</v>
       </c>
       <c r="M147" t="s">
-        <v>1764</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -12170,22 +12140,22 @@
         <v>290</v>
       </c>
       <c r="I148" t="s">
-        <v>1203</v>
+        <v>1193</v>
       </c>
       <c r="J148" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="K148" t="s">
-        <v>1551</v>
+        <v>1541</v>
       </c>
       <c r="L148" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="M148" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
       <c r="N148" t="s">
-        <v>1917</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -12211,16 +12181,16 @@
         <v>249</v>
       </c>
       <c r="I149" t="s">
-        <v>1204</v>
+        <v>1194</v>
       </c>
       <c r="J149" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="K149" t="s">
-        <v>1552</v>
+        <v>1542</v>
       </c>
       <c r="M149" t="s">
-        <v>1766</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -12246,13 +12216,13 @@
         <v>249</v>
       </c>
       <c r="I150" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
       <c r="K150" t="s">
-        <v>1553</v>
+        <v>1543</v>
       </c>
       <c r="M150" t="s">
-        <v>1767</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -12278,22 +12248,22 @@
         <v>344</v>
       </c>
       <c r="I151" t="s">
-        <v>1206</v>
+        <v>1196</v>
       </c>
       <c r="J151" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
       <c r="K151" t="s">
-        <v>1554</v>
+        <v>1544</v>
       </c>
       <c r="L151" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="M151" t="s">
-        <v>1768</v>
+        <v>1758</v>
       </c>
       <c r="N151" t="s">
-        <v>1597</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -12319,22 +12289,22 @@
         <v>249</v>
       </c>
       <c r="I152" t="s">
-        <v>1207</v>
+        <v>1197</v>
       </c>
       <c r="J152" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
       <c r="K152" t="s">
-        <v>1549</v>
+        <v>1539</v>
       </c>
       <c r="L152" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="M152" t="s">
-        <v>1769</v>
+        <v>1759</v>
       </c>
       <c r="N152" t="s">
-        <v>1353</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -12360,13 +12330,13 @@
         <v>249</v>
       </c>
       <c r="I153" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="K153" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="M153" t="s">
-        <v>1541</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -12392,13 +12362,13 @@
         <v>249</v>
       </c>
       <c r="I154" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="K154" t="s">
-        <v>1555</v>
+        <v>1545</v>
       </c>
       <c r="M154" t="s">
-        <v>1770</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -12424,22 +12394,22 @@
         <v>345</v>
       </c>
       <c r="I155" t="s">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="J155" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
       <c r="K155" t="s">
-        <v>1556</v>
+        <v>1546</v>
       </c>
       <c r="L155" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="M155" t="s">
-        <v>1771</v>
+        <v>1761</v>
       </c>
       <c r="N155" t="s">
-        <v>1326</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -12465,16 +12435,16 @@
         <v>249</v>
       </c>
       <c r="I156" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
       <c r="J156" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="K156" t="s">
-        <v>1557</v>
+        <v>1547</v>
       </c>
       <c r="M156" t="s">
-        <v>1772</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -12500,19 +12470,19 @@
         <v>344</v>
       </c>
       <c r="I157" t="s">
-        <v>1212</v>
+        <v>1202</v>
       </c>
       <c r="J157" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
       <c r="K157" t="s">
-        <v>1558</v>
+        <v>1548</v>
       </c>
       <c r="M157" t="s">
-        <v>1773</v>
+        <v>1763</v>
       </c>
       <c r="N157" t="s">
-        <v>1380</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -12538,13 +12508,13 @@
         <v>249</v>
       </c>
       <c r="I158" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="K158" t="s">
-        <v>1559</v>
+        <v>1549</v>
       </c>
       <c r="M158" t="s">
-        <v>1774</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -12570,19 +12540,19 @@
         <v>345</v>
       </c>
       <c r="I159" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
       <c r="J159" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="K159" t="s">
-        <v>1560</v>
+        <v>1550</v>
       </c>
       <c r="M159" t="s">
-        <v>1775</v>
+        <v>1765</v>
       </c>
       <c r="N159" t="s">
-        <v>1394</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -12608,22 +12578,22 @@
         <v>249</v>
       </c>
       <c r="I160" t="s">
-        <v>1215</v>
+        <v>1205</v>
       </c>
       <c r="J160" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="K160" t="s">
-        <v>1561</v>
+        <v>1551</v>
       </c>
       <c r="L160" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="M160" t="s">
-        <v>1776</v>
+        <v>1766</v>
       </c>
       <c r="N160" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -12649,19 +12619,19 @@
         <v>249</v>
       </c>
       <c r="I161" t="s">
-        <v>1216</v>
+        <v>1206</v>
       </c>
       <c r="J161" t="s">
-        <v>1341</v>
+        <v>1331</v>
       </c>
       <c r="K161" t="s">
-        <v>1562</v>
+        <v>1552</v>
       </c>
       <c r="L161" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="M161" t="s">
-        <v>1777</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -12687,13 +12657,13 @@
         <v>249</v>
       </c>
       <c r="I162" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="K162" t="s">
-        <v>1563</v>
+        <v>1553</v>
       </c>
       <c r="M162" t="s">
-        <v>1778</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -12719,13 +12689,13 @@
         <v>249</v>
       </c>
       <c r="I163" t="s">
-        <v>1218</v>
+        <v>1208</v>
       </c>
       <c r="K163" t="s">
-        <v>1564</v>
+        <v>1554</v>
       </c>
       <c r="M163" t="s">
-        <v>1779</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -12751,22 +12721,22 @@
         <v>249</v>
       </c>
       <c r="I164" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="J164" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="K164" t="s">
-        <v>1545</v>
+        <v>1535</v>
       </c>
       <c r="L164" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="M164" t="s">
-        <v>1780</v>
+        <v>1770</v>
       </c>
       <c r="N164" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -12792,22 +12762,22 @@
         <v>249</v>
       </c>
       <c r="I165" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="J165" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
       <c r="K165" t="s">
-        <v>1565</v>
+        <v>1555</v>
       </c>
       <c r="L165" t="s">
-        <v>1394</v>
+        <v>1384</v>
       </c>
       <c r="M165" t="s">
-        <v>1781</v>
+        <v>1771</v>
       </c>
       <c r="N165" t="s">
-        <v>1613</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -12833,19 +12803,19 @@
         <v>249</v>
       </c>
       <c r="I166" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
       <c r="J166" t="s">
-        <v>1394</v>
+        <v>1384</v>
       </c>
       <c r="K166" t="s">
-        <v>1566</v>
+        <v>1556</v>
       </c>
       <c r="M166" t="s">
-        <v>1782</v>
+        <v>1772</v>
       </c>
       <c r="N166" t="s">
-        <v>1401</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -12871,16 +12841,16 @@
         <v>345</v>
       </c>
       <c r="I167" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
       <c r="J167" t="s">
-        <v>1395</v>
+        <v>1385</v>
       </c>
       <c r="K167" t="s">
-        <v>1567</v>
+        <v>1557</v>
       </c>
       <c r="M167" t="s">
-        <v>1783</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -12906,13 +12876,13 @@
         <v>316</v>
       </c>
       <c r="I168" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="K168" t="s">
-        <v>1568</v>
+        <v>1558</v>
       </c>
       <c r="M168" t="s">
-        <v>1784</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -12938,13 +12908,13 @@
         <v>318</v>
       </c>
       <c r="I169" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
       <c r="K169" t="s">
         <v>326</v>
       </c>
       <c r="M169" t="s">
-        <v>1785</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -12970,13 +12940,13 @@
         <v>346</v>
       </c>
       <c r="I170" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="K170" t="s">
         <v>532</v>
       </c>
       <c r="M170" t="s">
-        <v>1786</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -13002,22 +12972,22 @@
         <v>343</v>
       </c>
       <c r="I171" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
       <c r="J171" t="s">
-        <v>1396</v>
+        <v>1386</v>
       </c>
       <c r="K171" t="s">
-        <v>1569</v>
+        <v>1559</v>
       </c>
       <c r="L171" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
       <c r="M171" t="s">
-        <v>1787</v>
+        <v>1777</v>
       </c>
       <c r="N171" t="s">
-        <v>1918</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -13043,13 +13013,13 @@
         <v>318</v>
       </c>
       <c r="I172" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
       <c r="K172" t="s">
-        <v>1570</v>
+        <v>1560</v>
       </c>
       <c r="M172" t="s">
-        <v>1788</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -13075,22 +13045,22 @@
         <v>317</v>
       </c>
       <c r="I173" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="J173" t="s">
-        <v>1397</v>
+        <v>1387</v>
       </c>
       <c r="K173" t="s">
-        <v>1571</v>
+        <v>1561</v>
       </c>
       <c r="L173" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="M173" t="s">
-        <v>1789</v>
+        <v>1779</v>
       </c>
       <c r="N173" t="s">
-        <v>1919</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -13116,22 +13086,22 @@
         <v>249</v>
       </c>
       <c r="I174" t="s">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="J174" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="K174" t="s">
-        <v>1572</v>
+        <v>1562</v>
       </c>
       <c r="L174" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="M174" t="s">
-        <v>1790</v>
+        <v>1780</v>
       </c>
       <c r="N174" t="s">
-        <v>1920</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -13157,16 +13127,16 @@
         <v>316</v>
       </c>
       <c r="I175" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="J175" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="K175" t="s">
-        <v>1573</v>
+        <v>1563</v>
       </c>
       <c r="M175" t="s">
-        <v>1791</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -13192,19 +13162,19 @@
         <v>347</v>
       </c>
       <c r="I176" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="J176" t="s">
-        <v>1399</v>
+        <v>1389</v>
       </c>
       <c r="K176" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
       <c r="L176" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
       <c r="M176" t="s">
-        <v>1792</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -13227,28 +13197,28 @@
         <v>923</v>
       </c>
       <c r="G177" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="H177" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="I177" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="J177" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="K177" t="s">
-        <v>1575</v>
+        <v>1565</v>
       </c>
       <c r="L177" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="M177" t="s">
-        <v>1793</v>
+        <v>1783</v>
       </c>
       <c r="N177" t="s">
-        <v>1921</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -13274,19 +13244,19 @@
         <v>249</v>
       </c>
       <c r="I178" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="J178" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="K178" t="s">
         <v>324</v>
       </c>
       <c r="M178" t="s">
-        <v>1794</v>
+        <v>1784</v>
       </c>
       <c r="N178" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="179" spans="1:14">
@@ -13312,16 +13282,16 @@
         <v>249</v>
       </c>
       <c r="I179" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="K179" t="s">
-        <v>1576</v>
+        <v>1566</v>
       </c>
       <c r="M179" t="s">
-        <v>1795</v>
+        <v>1785</v>
       </c>
       <c r="N179" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="180" spans="1:14">
@@ -13347,19 +13317,19 @@
         <v>345</v>
       </c>
       <c r="I180" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="J180" t="s">
-        <v>1401</v>
+        <v>1391</v>
       </c>
       <c r="K180" t="s">
-        <v>1577</v>
+        <v>1567</v>
       </c>
       <c r="M180" t="s">
-        <v>1796</v>
+        <v>1786</v>
       </c>
       <c r="N180" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -13385,19 +13355,19 @@
         <v>249</v>
       </c>
       <c r="I181" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="J181" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="K181" t="s">
-        <v>1578</v>
+        <v>1568</v>
       </c>
       <c r="M181" t="s">
-        <v>1797</v>
+        <v>1787</v>
       </c>
       <c r="N181" t="s">
-        <v>1401</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -13426,10 +13396,10 @@
         <v>958</v>
       </c>
       <c r="K182" t="s">
-        <v>1579</v>
+        <v>1569</v>
       </c>
       <c r="M182" t="s">
-        <v>1798</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="183" spans="1:14">
@@ -13455,13 +13425,13 @@
         <v>346</v>
       </c>
       <c r="I183" t="s">
-        <v>1237</v>
+        <v>1227</v>
       </c>
       <c r="K183" t="s">
-        <v>1580</v>
+        <v>1570</v>
       </c>
       <c r="M183" t="s">
-        <v>1799</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="184" spans="1:14">
@@ -13487,13 +13457,13 @@
         <v>346</v>
       </c>
       <c r="I184" t="s">
-        <v>1238</v>
+        <v>1228</v>
       </c>
       <c r="K184" t="s">
-        <v>1581</v>
+        <v>1571</v>
       </c>
       <c r="M184" t="s">
-        <v>1800</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="185" spans="1:14">
@@ -13519,13 +13489,13 @@
         <v>316</v>
       </c>
       <c r="I185" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
       <c r="K185" t="s">
-        <v>1582</v>
+        <v>1572</v>
       </c>
       <c r="M185" t="s">
-        <v>1801</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="186" spans="1:14">
@@ -13551,22 +13521,22 @@
         <v>249</v>
       </c>
       <c r="I186" t="s">
-        <v>1240</v>
+        <v>1230</v>
       </c>
       <c r="J186" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="K186" t="s">
-        <v>1577</v>
+        <v>1567</v>
       </c>
       <c r="L186" t="s">
-        <v>1394</v>
+        <v>1384</v>
       </c>
       <c r="M186" t="s">
-        <v>1802</v>
+        <v>1792</v>
       </c>
       <c r="N186" t="s">
-        <v>1922</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="187" spans="1:14">
@@ -13592,19 +13562,19 @@
         <v>249</v>
       </c>
       <c r="I187" t="s">
-        <v>1241</v>
+        <v>1231</v>
       </c>
       <c r="J187" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="K187" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="M187" t="s">
-        <v>1803</v>
+        <v>1793</v>
       </c>
       <c r="N187" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="188" spans="1:14">
@@ -13630,19 +13600,19 @@
         <v>290</v>
       </c>
       <c r="I188" t="s">
-        <v>1242</v>
+        <v>1232</v>
       </c>
       <c r="J188" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K188" t="s">
+        <v>1573</v>
+      </c>
+      <c r="M188" t="s">
+        <v>1794</v>
+      </c>
+      <c r="N188" t="s">
         <v>1380</v>
-      </c>
-      <c r="K188" t="s">
-        <v>1583</v>
-      </c>
-      <c r="M188" t="s">
-        <v>1804</v>
-      </c>
-      <c r="N188" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -13668,19 +13638,19 @@
         <v>282</v>
       </c>
       <c r="I189" t="s">
-        <v>1243</v>
+        <v>1233</v>
       </c>
       <c r="J189" t="s">
-        <v>1325</v>
+        <v>1315</v>
       </c>
       <c r="K189" t="s">
-        <v>1265</v>
+        <v>1255</v>
       </c>
       <c r="M189" t="s">
-        <v>1805</v>
+        <v>1795</v>
       </c>
       <c r="N189" t="s">
-        <v>1401</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -13706,19 +13676,19 @@
         <v>249</v>
       </c>
       <c r="I190" t="s">
-        <v>1244</v>
+        <v>1234</v>
       </c>
       <c r="J190" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
       <c r="K190" t="s">
-        <v>1584</v>
+        <v>1574</v>
       </c>
       <c r="M190" t="s">
-        <v>1806</v>
+        <v>1796</v>
       </c>
       <c r="N190" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -13744,13 +13714,13 @@
         <v>344</v>
       </c>
       <c r="I191" t="s">
-        <v>1245</v>
+        <v>1235</v>
       </c>
       <c r="K191" t="s">
-        <v>1585</v>
+        <v>1575</v>
       </c>
       <c r="M191" t="s">
-        <v>1807</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -13776,19 +13746,19 @@
         <v>346</v>
       </c>
       <c r="I192" t="s">
-        <v>1246</v>
+        <v>1236</v>
       </c>
       <c r="J192" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="K192" t="s">
-        <v>1586</v>
+        <v>1576</v>
       </c>
       <c r="M192" t="s">
-        <v>1808</v>
+        <v>1798</v>
       </c>
       <c r="N192" t="s">
-        <v>1382</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -13814,22 +13784,22 @@
         <v>249</v>
       </c>
       <c r="I193" t="s">
-        <v>1247</v>
+        <v>1237</v>
       </c>
       <c r="J193" t="s">
-        <v>1403</v>
+        <v>1393</v>
       </c>
       <c r="K193" t="s">
-        <v>1587</v>
+        <v>1577</v>
       </c>
       <c r="L193" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="M193" t="s">
-        <v>1502</v>
+        <v>1492</v>
       </c>
       <c r="N193" t="s">
-        <v>1614</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -13855,22 +13825,22 @@
         <v>346</v>
       </c>
       <c r="I194" t="s">
-        <v>1248</v>
+        <v>1238</v>
       </c>
       <c r="J194" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
       <c r="K194" t="s">
-        <v>1588</v>
+        <v>1578</v>
       </c>
       <c r="L194" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="M194" t="s">
-        <v>1809</v>
+        <v>1799</v>
       </c>
       <c r="N194" t="s">
-        <v>1406</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -13896,19 +13866,19 @@
         <v>346</v>
       </c>
       <c r="I195" t="s">
-        <v>1249</v>
+        <v>1239</v>
       </c>
       <c r="J195" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="K195" t="s">
         <v>326</v>
       </c>
       <c r="M195" t="s">
-        <v>1810</v>
+        <v>1800</v>
       </c>
       <c r="N195" t="s">
-        <v>1394</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -13934,13 +13904,13 @@
         <v>249</v>
       </c>
       <c r="I196" t="s">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="K196" t="s">
         <v>343</v>
       </c>
       <c r="M196" t="s">
-        <v>1811</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -13966,22 +13936,22 @@
         <v>349</v>
       </c>
       <c r="I197" t="s">
-        <v>1251</v>
+        <v>1241</v>
       </c>
       <c r="J197" t="s">
-        <v>1404</v>
+        <v>1394</v>
       </c>
       <c r="K197" t="s">
-        <v>1589</v>
+        <v>1579</v>
       </c>
       <c r="L197" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="M197" t="s">
-        <v>1812</v>
+        <v>1802</v>
       </c>
       <c r="N197" t="s">
-        <v>1923</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -14007,19 +13977,19 @@
         <v>316</v>
       </c>
       <c r="I198" t="s">
-        <v>1252</v>
+        <v>1242</v>
       </c>
       <c r="J198" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="K198" t="s">
         <v>317</v>
       </c>
       <c r="M198" t="s">
-        <v>1813</v>
+        <v>1803</v>
       </c>
       <c r="N198" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -14045,13 +14015,13 @@
         <v>344</v>
       </c>
       <c r="I199" t="s">
-        <v>1253</v>
+        <v>1243</v>
       </c>
       <c r="K199" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="M199" t="s">
-        <v>1814</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -14077,16 +14047,16 @@
         <v>249</v>
       </c>
       <c r="I200" t="s">
-        <v>1254</v>
+        <v>1244</v>
       </c>
       <c r="J200" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="K200" t="s">
         <v>318</v>
       </c>
       <c r="M200" t="s">
-        <v>1815</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -14112,16 +14082,16 @@
         <v>249</v>
       </c>
       <c r="I201" t="s">
-        <v>1255</v>
+        <v>1245</v>
       </c>
       <c r="J201" t="s">
-        <v>1405</v>
+        <v>1395</v>
       </c>
       <c r="K201" t="s">
-        <v>1588</v>
+        <v>1578</v>
       </c>
       <c r="M201" t="s">
-        <v>1816</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -14147,22 +14117,22 @@
         <v>316</v>
       </c>
       <c r="I202" t="s">
-        <v>1256</v>
+        <v>1246</v>
       </c>
       <c r="J202" t="s">
-        <v>1406</v>
+        <v>1396</v>
       </c>
       <c r="K202" t="s">
         <v>322</v>
       </c>
       <c r="L202" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="M202" t="s">
-        <v>1817</v>
+        <v>1807</v>
       </c>
       <c r="N202" t="s">
-        <v>1401</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -14188,13 +14158,13 @@
         <v>249</v>
       </c>
       <c r="I203" t="s">
-        <v>1257</v>
+        <v>1247</v>
       </c>
       <c r="K203" t="s">
         <v>318</v>
       </c>
       <c r="M203" t="s">
-        <v>1818</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -14220,13 +14190,13 @@
         <v>344</v>
       </c>
       <c r="I204" t="s">
-        <v>1258</v>
+        <v>1248</v>
       </c>
       <c r="K204" t="s">
-        <v>1587</v>
+        <v>1577</v>
       </c>
       <c r="M204" t="s">
-        <v>1545</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -14252,13 +14222,13 @@
         <v>249</v>
       </c>
       <c r="I205" t="s">
-        <v>1259</v>
+        <v>1249</v>
       </c>
       <c r="K205" t="s">
         <v>346</v>
       </c>
       <c r="M205" t="s">
-        <v>1819</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -14284,19 +14254,19 @@
         <v>249</v>
       </c>
       <c r="I206" t="s">
-        <v>1260</v>
+        <v>1250</v>
       </c>
       <c r="J206" t="s">
-        <v>1382</v>
+        <v>1372</v>
       </c>
       <c r="K206" t="s">
         <v>346</v>
       </c>
       <c r="M206" t="s">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="N206" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -14322,19 +14292,19 @@
         <v>346</v>
       </c>
       <c r="I207" t="s">
-        <v>1261</v>
+        <v>1251</v>
       </c>
       <c r="J207" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="K207" t="s">
-        <v>1590</v>
+        <v>1580</v>
       </c>
       <c r="M207" t="s">
-        <v>1821</v>
+        <v>1811</v>
       </c>
       <c r="N207" t="s">
-        <v>1373</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -14360,13 +14330,13 @@
         <v>249</v>
       </c>
       <c r="I208" t="s">
-        <v>1262</v>
+        <v>1252</v>
       </c>
       <c r="K208" t="s">
         <v>344</v>
       </c>
       <c r="M208" t="s">
-        <v>1822</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -14392,13 +14362,13 @@
         <v>249</v>
       </c>
       <c r="I209" t="s">
-        <v>1263</v>
+        <v>1253</v>
       </c>
       <c r="K209" t="s">
         <v>316</v>
       </c>
       <c r="M209" t="s">
-        <v>1823</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -14424,16 +14394,16 @@
         <v>249</v>
       </c>
       <c r="I210" t="s">
-        <v>1264</v>
+        <v>1254</v>
       </c>
       <c r="J210" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="K210" t="s">
-        <v>1590</v>
+        <v>1580</v>
       </c>
       <c r="M210" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -14462,10 +14432,10 @@
         <v>335</v>
       </c>
       <c r="K211" t="s">
-        <v>1590</v>
+        <v>1580</v>
       </c>
       <c r="M211" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -14497,7 +14467,7 @@
         <v>316</v>
       </c>
       <c r="M212" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -14523,13 +14493,13 @@
         <v>249</v>
       </c>
       <c r="I213" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="K213" t="s">
-        <v>1590</v>
+        <v>1580</v>
       </c>
       <c r="M213" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -14555,13 +14525,13 @@
         <v>249</v>
       </c>
       <c r="I214" t="s">
-        <v>1265</v>
+        <v>1255</v>
       </c>
       <c r="K214" t="s">
-        <v>1590</v>
+        <v>1580</v>
       </c>
       <c r="M214" t="s">
-        <v>1265</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -14590,7 +14560,7 @@
         <v>303</v>
       </c>
       <c r="K215" t="s">
-        <v>1590</v>
+        <v>1580</v>
       </c>
       <c r="M215" t="s">
         <v>303</v>
@@ -14686,7 +14656,7 @@
         <v>282</v>
       </c>
       <c r="K218" t="s">
-        <v>1590</v>
+        <v>1580</v>
       </c>
       <c r="M218" t="s">
         <v>282</v>
@@ -14718,7 +14688,7 @@
         <v>345</v>
       </c>
       <c r="K219" t="s">
-        <v>1590</v>
+        <v>1580</v>
       </c>
       <c r="M219" t="s">
         <v>345</v>
@@ -14782,7 +14752,7 @@
         <v>318</v>
       </c>
       <c r="K221" t="s">
-        <v>1590</v>
+        <v>1580</v>
       </c>
       <c r="M221" t="s">
         <v>318</v>
@@ -14814,7 +14784,7 @@
         <v>346</v>
       </c>
       <c r="K222" t="s">
-        <v>1590</v>
+        <v>1580</v>
       </c>
       <c r="M222" t="s">
         <v>346</v>
@@ -14846,7 +14816,7 @@
         <v>316</v>
       </c>
       <c r="K223" t="s">
-        <v>1590</v>
+        <v>1580</v>
       </c>
       <c r="M223" t="s">
         <v>316</v>

--- a/0929_covid_df_merge/data/2021-09-29_corona.xlsx
+++ b/0929_covid_df_merge/data/2021-09-29_corona.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="1914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="1712">
   <si>
     <t>국가</t>
   </si>
@@ -1691,7 +1691,7 @@
     <t>114476</t>
   </si>
   <si>
-    <t>51305</t>
+    <t>51468</t>
   </si>
   <si>
     <t>84480</t>
@@ -1724,13 +1724,13 @@
     <t>28351</t>
   </si>
   <si>
-    <t>76780</t>
+    <t>76812</t>
   </si>
   <si>
     <t>48913</t>
   </si>
   <si>
-    <t>23140</t>
+    <t>23270</t>
   </si>
   <si>
     <t>55412</t>
@@ -1766,7 +1766,7 @@
     <t>9442</t>
   </si>
   <si>
-    <t>147567</t>
+    <t>147791</t>
   </si>
   <si>
     <t>5637</t>
@@ -1811,7 +1811,7 @@
     <t>8007</t>
   </si>
   <si>
-    <t>82280</t>
+    <t>82507</t>
   </si>
   <si>
     <t>74388</t>
@@ -1868,7 +1868,7 @@
     <t>96382</t>
   </si>
   <si>
-    <t>75294</t>
+    <t>75556</t>
   </si>
   <si>
     <t>98186</t>
@@ -1901,7 +1901,7 @@
     <t>49375</t>
   </si>
   <si>
-    <t>121173</t>
+    <t>121840</t>
   </si>
   <si>
     <t>6072</t>
@@ -1916,7 +1916,7 @@
     <t>92757</t>
   </si>
   <si>
-    <t>140617</t>
+    <t>141112</t>
   </si>
   <si>
     <t>72593</t>
@@ -1964,10 +1964,10 @@
     <t>83280</t>
   </si>
   <si>
-    <t>117199</t>
-  </si>
-  <si>
-    <t>3986</t>
+    <t>117793</t>
+  </si>
+  <si>
+    <t>3987</t>
   </si>
   <si>
     <t>4820</t>
@@ -2096,7 +2096,7 @@
     <t>3064</t>
   </si>
   <si>
-    <t>3228</t>
+    <t>3278</t>
   </si>
   <si>
     <t>1971</t>
@@ -2120,13 +2120,13 @@
     <t>1257</t>
   </si>
   <si>
-    <t>2225</t>
+    <t>2260</t>
   </si>
   <si>
     <t>14756</t>
   </si>
   <si>
-    <t>1472</t>
+    <t>1491</t>
   </si>
   <si>
     <t>1791</t>
@@ -2228,13 +2228,13 @@
     <t>307</t>
   </si>
   <si>
-    <t>99426</t>
+    <t>99893</t>
   </si>
   <si>
     <t>886</t>
   </si>
   <si>
-    <t>4757</t>
+    <t>4762</t>
   </si>
   <si>
     <t>96390</t>
@@ -4265,367 +4265,367 @@
     <t>+19</t>
   </si>
   <si>
-    <t>711,222</t>
-  </si>
-  <si>
-    <t>447,828</t>
-  </si>
-  <si>
-    <t>595,520</t>
-  </si>
-  <si>
-    <t>136,375</t>
-  </si>
-  <si>
-    <t>206,388</t>
-  </si>
-  <si>
-    <t>63,611</t>
-  </si>
-  <si>
-    <t>116,615</t>
-  </si>
-  <si>
-    <t>120,160</t>
-  </si>
-  <si>
-    <t>115,038</t>
-  </si>
-  <si>
-    <t>126,219</t>
-  </si>
-  <si>
-    <t>86,358</t>
-  </si>
-  <si>
-    <t>130,807</t>
-  </si>
-  <si>
-    <t>94,140</t>
-  </si>
-  <si>
-    <t>141,826</t>
-  </si>
-  <si>
-    <t>276,376</t>
-  </si>
-  <si>
-    <t>75,623</t>
-  </si>
-  <si>
-    <t>87,417</t>
-  </si>
-  <si>
-    <t>38,164</t>
-  </si>
-  <si>
-    <t>56,080</t>
-  </si>
-  <si>
-    <t>25,935</t>
-  </si>
-  <si>
-    <t>199,329</t>
-  </si>
-  <si>
-    <t>18,168</t>
-  </si>
-  <si>
-    <t>22,221</t>
-  </si>
-  <si>
-    <t>17,625</t>
-  </si>
-  <si>
-    <t>30,455</t>
-  </si>
-  <si>
-    <t>37,455</t>
-  </si>
-  <si>
-    <t>27,754</t>
-  </si>
-  <si>
-    <t>16,620</t>
-  </si>
-  <si>
-    <t>27,487</t>
-  </si>
-  <si>
-    <t>7,692</t>
-  </si>
-  <si>
-    <t>27,690</t>
-  </si>
-  <si>
-    <t>25,581</t>
-  </si>
-  <si>
-    <t>36,865</t>
-  </si>
-  <si>
-    <t>14,814</t>
-  </si>
-  <si>
-    <t>17,968</t>
-  </si>
-  <si>
-    <t>8,187</t>
-  </si>
-  <si>
-    <t>14,225</t>
-  </si>
-  <si>
-    <t>11,142</t>
-  </si>
-  <si>
-    <t>7,378</t>
-  </si>
-  <si>
-    <t>11,087</t>
-  </si>
-  <si>
-    <t>30,185</t>
-  </si>
-  <si>
-    <t>10,703</t>
-  </si>
-  <si>
-    <t>11,123</t>
-  </si>
-  <si>
-    <t>19,098</t>
-  </si>
-  <si>
-    <t>10,998</t>
-  </si>
-  <si>
-    <t>2,095</t>
-  </si>
-  <si>
-    <t>24,842</t>
-  </si>
-  <si>
-    <t>14,751</t>
-  </si>
-  <si>
-    <t>8,306</t>
-  </si>
-  <si>
-    <t>8,917</t>
-  </si>
-  <si>
-    <t>13,453</t>
-  </si>
-  <si>
-    <t>8,713</t>
-  </si>
-  <si>
-    <t>4,114</t>
-  </si>
-  <si>
-    <t>6,316</t>
-  </si>
-  <si>
-    <t>12,786</t>
-  </si>
-  <si>
-    <t>32,747</t>
-  </si>
-  <si>
-    <t>18,716</t>
-  </si>
-  <si>
-    <t>20,725</t>
-  </si>
-  <si>
-    <t>6,476</t>
-  </si>
-  <si>
-    <t>7,219</t>
-  </si>
-  <si>
-    <t>17,631</t>
-  </si>
-  <si>
-    <t>16,193</t>
-  </si>
-  <si>
-    <t>2,448</t>
-  </si>
-  <si>
-    <t>12,620</t>
-  </si>
-  <si>
-    <t>8,628</t>
-  </si>
-  <si>
-    <t>4,080</t>
-  </si>
-  <si>
-    <t>6,053</t>
-  </si>
-  <si>
-    <t>5,209</t>
-  </si>
-  <si>
-    <t>4,443</t>
-  </si>
-  <si>
-    <t>9,755</t>
-  </si>
-  <si>
-    <t>2,654</t>
-  </si>
-  <si>
-    <t>4,041</t>
-  </si>
-  <si>
-    <t>5,488</t>
-  </si>
-  <si>
-    <t>4,636</t>
-  </si>
-  <si>
-    <t>4,965</t>
-  </si>
-  <si>
-    <t>2,474</t>
-  </si>
-  <si>
-    <t>4,096</t>
-  </si>
-  <si>
-    <t>17,263</t>
-  </si>
-  <si>
-    <t>1,258</t>
-  </si>
-  <si>
-    <t>4,556</t>
-  </si>
-  <si>
-    <t>6,732</t>
-  </si>
-  <si>
-    <t>1,389</t>
-  </si>
-  <si>
-    <t>5,299</t>
-  </si>
-  <si>
-    <t>5,116</t>
+    <t>711222</t>
+  </si>
+  <si>
+    <t>447828</t>
+  </si>
+  <si>
+    <t>595520</t>
+  </si>
+  <si>
+    <t>136375</t>
+  </si>
+  <si>
+    <t>206388</t>
+  </si>
+  <si>
+    <t>63611</t>
+  </si>
+  <si>
+    <t>116615</t>
+  </si>
+  <si>
+    <t>120160</t>
+  </si>
+  <si>
+    <t>115038</t>
+  </si>
+  <si>
+    <t>126219</t>
+  </si>
+  <si>
+    <t>86358</t>
+  </si>
+  <si>
+    <t>130807</t>
+  </si>
+  <si>
+    <t>94140</t>
+  </si>
+  <si>
+    <t>141826</t>
+  </si>
+  <si>
+    <t>276376</t>
+  </si>
+  <si>
+    <t>75623</t>
+  </si>
+  <si>
+    <t>87417</t>
+  </si>
+  <si>
+    <t>38164</t>
+  </si>
+  <si>
+    <t>56080</t>
+  </si>
+  <si>
+    <t>25935</t>
+  </si>
+  <si>
+    <t>199329</t>
+  </si>
+  <si>
+    <t>18168</t>
+  </si>
+  <si>
+    <t>22221</t>
+  </si>
+  <si>
+    <t>17625</t>
+  </si>
+  <si>
+    <t>30455</t>
+  </si>
+  <si>
+    <t>37455</t>
+  </si>
+  <si>
+    <t>27754</t>
+  </si>
+  <si>
+    <t>16620</t>
+  </si>
+  <si>
+    <t>27487</t>
+  </si>
+  <si>
+    <t>7692</t>
+  </si>
+  <si>
+    <t>27690</t>
+  </si>
+  <si>
+    <t>25581</t>
+  </si>
+  <si>
+    <t>36865</t>
+  </si>
+  <si>
+    <t>14814</t>
+  </si>
+  <si>
+    <t>17968</t>
+  </si>
+  <si>
+    <t>8187</t>
+  </si>
+  <si>
+    <t>14225</t>
+  </si>
+  <si>
+    <t>11142</t>
+  </si>
+  <si>
+    <t>7378</t>
+  </si>
+  <si>
+    <t>11087</t>
+  </si>
+  <si>
+    <t>30185</t>
+  </si>
+  <si>
+    <t>10703</t>
+  </si>
+  <si>
+    <t>11123</t>
+  </si>
+  <si>
+    <t>19098</t>
+  </si>
+  <si>
+    <t>10998</t>
+  </si>
+  <si>
+    <t>2095</t>
+  </si>
+  <si>
+    <t>24842</t>
+  </si>
+  <si>
+    <t>14751</t>
+  </si>
+  <si>
+    <t>8306</t>
+  </si>
+  <si>
+    <t>8917</t>
+  </si>
+  <si>
+    <t>13453</t>
+  </si>
+  <si>
+    <t>8713</t>
+  </si>
+  <si>
+    <t>4114</t>
+  </si>
+  <si>
+    <t>6316</t>
+  </si>
+  <si>
+    <t>12786</t>
+  </si>
+  <si>
+    <t>32747</t>
+  </si>
+  <si>
+    <t>18716</t>
+  </si>
+  <si>
+    <t>20725</t>
+  </si>
+  <si>
+    <t>6476</t>
+  </si>
+  <si>
+    <t>7219</t>
+  </si>
+  <si>
+    <t>17631</t>
+  </si>
+  <si>
+    <t>16193</t>
+  </si>
+  <si>
+    <t>2448</t>
+  </si>
+  <si>
+    <t>12620</t>
+  </si>
+  <si>
+    <t>8628</t>
+  </si>
+  <si>
+    <t>4080</t>
+  </si>
+  <si>
+    <t>6053</t>
+  </si>
+  <si>
+    <t>5209</t>
+  </si>
+  <si>
+    <t>4443</t>
+  </si>
+  <si>
+    <t>9755</t>
+  </si>
+  <si>
+    <t>2654</t>
+  </si>
+  <si>
+    <t>4041</t>
+  </si>
+  <si>
+    <t>5488</t>
+  </si>
+  <si>
+    <t>4636</t>
+  </si>
+  <si>
+    <t>4965</t>
+  </si>
+  <si>
+    <t>2474</t>
+  </si>
+  <si>
+    <t>4096</t>
+  </si>
+  <si>
+    <t>17263</t>
+  </si>
+  <si>
+    <t>1258</t>
+  </si>
+  <si>
+    <t>4556</t>
+  </si>
+  <si>
+    <t>6732</t>
+  </si>
+  <si>
+    <t>1389</t>
+  </si>
+  <si>
+    <t>5299</t>
+  </si>
+  <si>
+    <t>5116</t>
   </si>
   <si>
     <t>605</t>
   </si>
   <si>
-    <t>10,574</t>
-  </si>
-  <si>
-    <t>3,647</t>
-  </si>
-  <si>
-    <t>2,695</t>
-  </si>
-  <si>
-    <t>5,797</t>
-  </si>
-  <si>
-    <t>6,630</t>
+    <t>10574</t>
+  </si>
+  <si>
+    <t>3647</t>
+  </si>
+  <si>
+    <t>2695</t>
+  </si>
+  <si>
+    <t>5797</t>
+  </si>
+  <si>
+    <t>6630</t>
   </si>
   <si>
     <t>861</t>
   </si>
   <si>
-    <t>2,605</t>
-  </si>
-  <si>
-    <t>2,367</t>
-  </si>
-  <si>
-    <t>1,234</t>
-  </si>
-  <si>
-    <t>2,668</t>
-  </si>
-  <si>
-    <t>2,706</t>
-  </si>
-  <si>
-    <t>1,352</t>
-  </si>
-  <si>
-    <t>7,204</t>
-  </si>
-  <si>
-    <t>1,912</t>
-  </si>
-  <si>
-    <t>1,062</t>
-  </si>
-  <si>
-    <t>1,914</t>
-  </si>
-  <si>
-    <t>4,615</t>
-  </si>
-  <si>
-    <t>3,494</t>
-  </si>
-  <si>
-    <t>1,150</t>
-  </si>
-  <si>
-    <t>3,152</t>
+    <t>2605</t>
+  </si>
+  <si>
+    <t>2367</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>2668</t>
+  </si>
+  <si>
+    <t>2706</t>
+  </si>
+  <si>
+    <t>1352</t>
+  </si>
+  <si>
+    <t>7204</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1062</t>
+  </si>
+  <si>
+    <t>1914</t>
+  </si>
+  <si>
+    <t>4615</t>
+  </si>
+  <si>
+    <t>3494</t>
+  </si>
+  <si>
+    <t>1150</t>
+  </si>
+  <si>
+    <t>3152</t>
   </si>
   <si>
     <t>553</t>
   </si>
   <si>
-    <t>2,302</t>
-  </si>
-  <si>
-    <t>2,269</t>
-  </si>
-  <si>
-    <t>3,222</t>
-  </si>
-  <si>
-    <t>1,278</t>
-  </si>
-  <si>
-    <t>1,259</t>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2269</t>
+  </si>
+  <si>
+    <t>3222</t>
+  </si>
+  <si>
+    <t>1278</t>
+  </si>
+  <si>
+    <t>1259</t>
   </si>
   <si>
     <t>85</t>
   </si>
   <si>
-    <t>1,368</t>
+    <t>1368</t>
   </si>
   <si>
     <t>231</t>
   </si>
   <si>
-    <t>1,859</t>
+    <t>1859</t>
   </si>
   <si>
     <t>835</t>
   </si>
   <si>
-    <t>1,858</t>
-  </si>
-  <si>
-    <t>2,279</t>
+    <t>1858</t>
+  </si>
+  <si>
+    <t>2279</t>
   </si>
   <si>
     <t>611</t>
   </si>
   <si>
-    <t>1,084</t>
-  </si>
-  <si>
-    <t>1,526</t>
+    <t>1084</t>
+  </si>
+  <si>
+    <t>1526</t>
   </si>
   <si>
     <t>366</t>
@@ -4637,10 +4637,10 @@
     <t>621</t>
   </si>
   <si>
-    <t>1,466</t>
-  </si>
-  <si>
-    <t>1,216</t>
+    <t>1466</t>
+  </si>
+  <si>
+    <t>1216</t>
   </si>
   <si>
     <t>958</t>
@@ -4658,7 +4658,7 @@
     <t>617</t>
   </si>
   <si>
-    <t>2,900</t>
+    <t>2900</t>
   </si>
   <si>
     <t>336</t>
@@ -4670,7 +4670,7 @@
     <t>773</t>
   </si>
   <si>
-    <t>2,227</t>
+    <t>2227</t>
   </si>
   <si>
     <t>778</t>
@@ -4703,7 +4703,7 @@
     <t>178</t>
   </si>
   <si>
-    <t>1,111</t>
+    <t>1111</t>
   </si>
   <si>
     <t>229</t>
@@ -4757,7 +4757,7 @@
     <t>335</t>
   </si>
   <si>
-    <t>1,715</t>
+    <t>1715</t>
   </si>
   <si>
     <t>69</t>
@@ -4908,612 +4908,6 @@
   </si>
   <si>
     <t>+49</t>
-  </si>
-  <si>
-    <t>33,520,958</t>
-  </si>
-  <si>
-    <t>32,986,180</t>
-  </si>
-  <si>
-    <t>20,383,243</t>
-  </si>
-  <si>
-    <t>6,255,350</t>
-  </si>
-  <si>
-    <t>6,653,941</t>
-  </si>
-  <si>
-    <t>6,552,771</t>
-  </si>
-  <si>
-    <t>6,750,241</t>
-  </si>
-  <si>
-    <t>5,009,673</t>
-  </si>
-  <si>
-    <t>5,115,084</t>
-  </si>
-  <si>
-    <t>4,795,975</t>
-  </si>
-  <si>
-    <t>4,745,511</t>
-  </si>
-  <si>
-    <t>4,435,370</t>
-  </si>
-  <si>
-    <t>3,989,700</t>
-  </si>
-  <si>
-    <t>4,034,176</t>
-  </si>
-  <si>
-    <t>2,999,060</t>
-  </si>
-  <si>
-    <t>2,662,132</t>
-  </si>
-  <si>
-    <t>2,765,700</t>
-  </si>
-  <si>
-    <t>2,365,229</t>
-  </si>
-  <si>
-    <t>2,251,352</t>
-  </si>
-  <si>
-    <t>2,020,099</t>
-  </si>
-  <si>
-    <t>1,907,411</t>
-  </si>
-  <si>
-    <t>1,648,065</t>
-  </si>
-  <si>
-    <t>1,654,019</t>
-  </si>
-  <si>
-    <t>1,609,007</t>
-  </si>
-  <si>
-    <t>1,543,328</t>
-  </si>
-  <si>
-    <t>1,459,786</t>
-  </si>
-  <si>
-    <t>1,514,962</t>
-  </si>
-  <si>
-    <t>1,213,546</t>
-  </si>
-  <si>
-    <t>1,167,189</t>
-  </si>
-  <si>
-    <t>1,152,355</t>
-  </si>
-  <si>
-    <t>1,110,542</t>
-  </si>
-  <si>
-    <t>1,020,067</t>
-  </si>
-  <si>
-    <t>798,306</t>
-  </si>
-  <si>
-    <t>902,778</t>
-  </si>
-  <si>
-    <t>818,521</t>
-  </si>
-  <si>
-    <t>834,004</t>
-  </si>
-  <si>
-    <t>765,932</t>
-  </si>
-  <si>
-    <t>784,539</t>
-  </si>
-  <si>
-    <t>798,740</t>
-  </si>
-  <si>
-    <t>764,847</t>
-  </si>
-  <si>
-    <t>583,509</t>
-  </si>
-  <si>
-    <t>710,069</t>
-  </si>
-  <si>
-    <t>728,195</t>
-  </si>
-  <si>
-    <t>673,990</t>
-  </si>
-  <si>
-    <t>608,082</t>
-  </si>
-  <si>
-    <t>592,145</t>
-  </si>
-  <si>
-    <t>582,805</t>
-  </si>
-  <si>
-    <t>511,678</t>
-  </si>
-  <si>
-    <t>536,125</t>
-  </si>
-  <si>
-    <t>517,325</t>
-  </si>
-  <si>
-    <t>426,385</t>
-  </si>
-  <si>
-    <t>456,087</t>
-  </si>
-  <si>
-    <t>443,880</t>
-  </si>
-  <si>
-    <t>458,899</t>
-  </si>
-  <si>
-    <t>434,474</t>
-  </si>
-  <si>
-    <t>452,968</t>
-  </si>
-  <si>
-    <t>455,950</t>
-  </si>
-  <si>
-    <t>415,376</t>
-  </si>
-  <si>
-    <t>442,955</t>
-  </si>
-  <si>
-    <t>408,459</t>
-  </si>
-  <si>
-    <t>387,358</t>
-  </si>
-  <si>
-    <t>386,351</t>
-  </si>
-  <si>
-    <t>371,819</t>
-  </si>
-  <si>
-    <t>381,315</t>
-  </si>
-  <si>
-    <t>341,205</t>
-  </si>
-  <si>
-    <t>348,895</t>
-  </si>
-  <si>
-    <t>109,982</t>
-  </si>
-  <si>
-    <t>350,776</t>
-  </si>
-  <si>
-    <t>348,865</t>
-  </si>
-  <si>
-    <t>310,239</t>
-  </si>
-  <si>
-    <t>258,574</t>
-  </si>
-  <si>
-    <t>302,106</t>
-  </si>
-  <si>
-    <t>272,724</t>
-  </si>
-  <si>
-    <t>297,546</t>
-  </si>
-  <si>
-    <t>255,658</t>
-  </si>
-  <si>
-    <t>291,328</t>
-  </si>
-  <si>
-    <t>274,665</t>
-  </si>
-  <si>
-    <t>275,115</t>
-  </si>
-  <si>
-    <t>272,803</t>
-  </si>
-  <si>
-    <t>241,191</t>
-  </si>
-  <si>
-    <t>241,180</t>
-  </si>
-  <si>
-    <t>234,671</t>
-  </si>
-  <si>
-    <t>192,218</t>
-  </si>
-  <si>
-    <t>204,847</t>
-  </si>
-  <si>
-    <t>193,260</t>
-  </si>
-  <si>
-    <t>139,077</t>
-  </si>
-  <si>
-    <t>171,871</t>
-  </si>
-  <si>
-    <t>88,952</t>
-  </si>
-  <si>
-    <t>173,102</t>
-  </si>
-  <si>
-    <t>173,004</t>
-  </si>
-  <si>
-    <t>168,359</t>
-  </si>
-  <si>
-    <t>155,678</t>
-  </si>
-  <si>
-    <t>145,167</t>
-  </si>
-  <si>
-    <t>143,316</t>
-  </si>
-  <si>
-    <t>124,631</t>
-  </si>
-  <si>
-    <t>146,843</t>
-  </si>
-  <si>
-    <t>46,000</t>
-  </si>
-  <si>
-    <t>121,363</t>
-  </si>
-  <si>
-    <t>122,621</t>
-  </si>
-  <si>
-    <t>122,788</t>
-  </si>
-  <si>
-    <t>122,456</t>
-  </si>
-  <si>
-    <t>96,083</t>
-  </si>
-  <si>
-    <t>90,755</t>
-  </si>
-  <si>
-    <t>102,222</t>
-  </si>
-  <si>
-    <t>105,323</t>
-  </si>
-  <si>
-    <t>86,851</t>
-  </si>
-  <si>
-    <t>74,781</t>
-  </si>
-  <si>
-    <t>45,469</t>
-  </si>
-  <si>
-    <t>90,521</t>
-  </si>
-  <si>
-    <t>76,221</t>
-  </si>
-  <si>
-    <t>80,433</t>
-  </si>
-  <si>
-    <t>82,769</t>
-  </si>
-  <si>
-    <t>52,531</t>
-  </si>
-  <si>
-    <t>76,032</t>
-  </si>
-  <si>
-    <t>71,752</t>
-  </si>
-  <si>
-    <t>54,723</t>
-  </si>
-  <si>
-    <t>57,717</t>
-  </si>
-  <si>
-    <t>30,858</t>
-  </si>
-  <si>
-    <t>47,421</t>
-  </si>
-  <si>
-    <t>52,663</t>
-  </si>
-  <si>
-    <t>2,250</t>
-  </si>
-  <si>
-    <t>36,724</t>
-  </si>
-  <si>
-    <t>44,575</t>
-  </si>
-  <si>
-    <t>44,025</t>
-  </si>
-  <si>
-    <t>41,322</t>
-  </si>
-  <si>
-    <t>26,894</t>
-  </si>
-  <si>
-    <t>9,995</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>33,500</t>
-  </si>
-  <si>
-    <t>32,054</t>
-  </si>
-  <si>
-    <t>36,560</t>
-  </si>
-  <si>
-    <t>35,941</t>
-  </si>
-  <si>
-    <t>34,484</t>
-  </si>
-  <si>
-    <t>23,669</t>
-  </si>
-  <si>
-    <t>26,639</t>
-  </si>
-  <si>
-    <t>28,798</t>
-  </si>
-  <si>
-    <t>26,641</t>
-  </si>
-  <si>
-    <t>22,741</t>
-  </si>
-  <si>
-    <t>5,568</t>
-  </si>
-  <si>
-    <t>17,294</t>
-  </si>
-  <si>
-    <t>19,463</t>
-  </si>
-  <si>
-    <t>20,903</t>
-  </si>
-  <si>
-    <t>18,321</t>
-  </si>
-  <si>
-    <t>17,758</t>
-  </si>
-  <si>
-    <t>2,964</t>
-  </si>
-  <si>
-    <t>9,523</t>
-  </si>
-  <si>
-    <t>18,431</t>
-  </si>
-  <si>
-    <t>18,562</t>
-  </si>
-  <si>
-    <t>16,960</t>
-  </si>
-  <si>
-    <t>15,836</t>
-  </si>
-  <si>
-    <t>13,742</t>
-  </si>
-  <si>
-    <t>15,041</t>
-  </si>
-  <si>
-    <t>1,854</t>
-  </si>
-  <si>
-    <t>14,986</t>
-  </si>
-  <si>
-    <t>14,285</t>
-  </si>
-  <si>
-    <t>4,225</t>
-  </si>
-  <si>
-    <t>6,830</t>
-  </si>
-  <si>
-    <t>12,421</t>
-  </si>
-  <si>
-    <t>13,869</t>
-  </si>
-  <si>
-    <t>12,045</t>
-  </si>
-  <si>
-    <t>11,901</t>
-  </si>
-  <si>
-    <t>11,570</t>
-  </si>
-  <si>
-    <t>10,225</t>
-  </si>
-  <si>
-    <t>11,372</t>
-  </si>
-  <si>
-    <t>6,859</t>
-  </si>
-  <si>
-    <t>9,625</t>
-  </si>
-  <si>
-    <t>9,571</t>
-  </si>
-  <si>
-    <t>5,617</t>
-  </si>
-  <si>
-    <t>6,819</t>
-  </si>
-  <si>
-    <t>7,096</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>4,722</t>
-  </si>
-  <si>
-    <t>6,629</t>
-  </si>
-  <si>
-    <t>4,381</t>
-  </si>
-  <si>
-    <t>5,295</t>
-  </si>
-  <si>
-    <t>5,750</t>
-  </si>
-  <si>
-    <t>5,458</t>
-  </si>
-  <si>
-    <t>5,373</t>
-  </si>
-  <si>
-    <t>5,310</t>
-  </si>
-  <si>
-    <t>3,613</t>
-  </si>
-  <si>
-    <t>3,361</t>
-  </si>
-  <si>
-    <t>4,854</t>
-  </si>
-  <si>
-    <t>4,022</t>
-  </si>
-  <si>
-    <t>3,965</t>
-  </si>
-  <si>
-    <t>3,961</t>
-  </si>
-  <si>
-    <t>1,399</t>
-  </si>
-  <si>
-    <t>3,363</t>
-  </si>
-  <si>
-    <t>2,407</t>
-  </si>
-  <si>
-    <t>3,250</t>
-  </si>
-  <si>
-    <t>2,680</t>
-  </si>
-  <si>
-    <t>2,123</t>
-  </si>
-  <si>
-    <t>2,758</t>
-  </si>
-  <si>
-    <t>2,555</t>
-  </si>
-  <si>
-    <t>2,593</t>
-  </si>
-  <si>
-    <t>1,918</t>
-  </si>
-  <si>
-    <t>980</t>
-  </si>
-  <si>
-    <t>462</t>
-  </si>
-  <si>
-    <t>1,059</t>
-  </si>
-  <si>
-    <t>762</t>
-  </si>
-  <si>
-    <t>441</t>
-  </si>
-  <si>
-    <t>438</t>
-  </si>
-  <si>
-    <t>362</t>
   </si>
   <si>
     <t>+126125</t>
@@ -6262,7 +5656,7 @@
         <v>1612</v>
       </c>
       <c r="N2" t="s">
-        <v>1814</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -6303,7 +5697,7 @@
         <v>1613</v>
       </c>
       <c r="N3" t="s">
-        <v>1815</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -6344,7 +5738,7 @@
         <v>1614</v>
       </c>
       <c r="N4" t="s">
-        <v>1816</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -6388,7 +5782,7 @@
         <v>1615</v>
       </c>
       <c r="N5" t="s">
-        <v>1817</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -6429,7 +5823,7 @@
         <v>1616</v>
       </c>
       <c r="N6" t="s">
-        <v>1818</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -6470,7 +5864,7 @@
         <v>1617</v>
       </c>
       <c r="N7" t="s">
-        <v>1819</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -6511,7 +5905,7 @@
         <v>1618</v>
       </c>
       <c r="N8" t="s">
-        <v>1820</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -6555,7 +5949,7 @@
         <v>1619</v>
       </c>
       <c r="N9" t="s">
-        <v>1821</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -6599,7 +5993,7 @@
         <v>1620</v>
       </c>
       <c r="N10" t="s">
-        <v>1822</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -6640,7 +6034,7 @@
         <v>1621</v>
       </c>
       <c r="N11" t="s">
-        <v>1823</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -6684,7 +6078,7 @@
         <v>1622</v>
       </c>
       <c r="N12" t="s">
-        <v>1824</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -6728,7 +6122,7 @@
         <v>1623</v>
       </c>
       <c r="N13" t="s">
-        <v>1825</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -6769,7 +6163,7 @@
         <v>1624</v>
       </c>
       <c r="N14" t="s">
-        <v>1826</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -6810,7 +6204,7 @@
         <v>1625</v>
       </c>
       <c r="N15" t="s">
-        <v>1827</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -6851,7 +6245,7 @@
         <v>1626</v>
       </c>
       <c r="N16" t="s">
-        <v>1828</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -6892,7 +6286,7 @@
         <v>1595</v>
       </c>
       <c r="M17" t="s">
-        <v>1627</v>
+        <v>1038</v>
       </c>
       <c r="N17" t="s">
         <v>1038</v>
@@ -6933,10 +6327,10 @@
         <v>1596</v>
       </c>
       <c r="M18" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="N18" t="s">
-        <v>1829</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -6974,10 +6368,10 @@
         <v>1597</v>
       </c>
       <c r="M19" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="N19" t="s">
-        <v>1830</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -7015,10 +6409,10 @@
         <v>1388</v>
       </c>
       <c r="M20" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="N20" t="s">
-        <v>1831</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -7059,10 +6453,10 @@
         <v>1598</v>
       </c>
       <c r="M21" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="N21" t="s">
-        <v>1832</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -7102,9 +6496,6 @@
       <c r="L22" t="s">
         <v>1032</v>
       </c>
-      <c r="M22" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
@@ -7143,9 +6534,6 @@
       <c r="L23" t="s">
         <v>1017</v>
       </c>
-      <c r="M23" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
@@ -7185,10 +6573,10 @@
         <v>1034</v>
       </c>
       <c r="M24" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="N24" t="s">
-        <v>1833</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -7229,10 +6617,10 @@
         <v>1335</v>
       </c>
       <c r="M25" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="N25" t="s">
-        <v>1834</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -7273,10 +6661,10 @@
         <v>1040</v>
       </c>
       <c r="M26" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="N26" t="s">
-        <v>1835</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -7317,10 +6705,10 @@
         <v>1017</v>
       </c>
       <c r="M27" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="N27" t="s">
-        <v>1836</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -7361,10 +6749,10 @@
         <v>1599</v>
       </c>
       <c r="M28" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="N28" t="s">
-        <v>1837</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -7402,10 +6790,10 @@
         <v>1600</v>
       </c>
       <c r="M29" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="N29" t="s">
-        <v>1838</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -7443,10 +6831,10 @@
         <v>1038</v>
       </c>
       <c r="M30" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="N30" t="s">
-        <v>1839</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -7487,10 +6875,10 @@
         <v>1372</v>
       </c>
       <c r="M31" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="N31" t="s">
-        <v>1840</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -7531,10 +6919,10 @@
         <v>1601</v>
       </c>
       <c r="M32" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="N32" t="s">
-        <v>1841</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -7571,9 +6959,6 @@
       <c r="L33" t="s">
         <v>1602</v>
       </c>
-      <c r="M33" t="s">
-        <v>1641</v>
-      </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
@@ -7613,10 +6998,10 @@
         <v>1603</v>
       </c>
       <c r="M34" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="N34" t="s">
-        <v>1842</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -7656,9 +7041,6 @@
       <c r="L35" t="s">
         <v>1017</v>
       </c>
-      <c r="M35" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
@@ -7698,10 +7080,10 @@
         <v>1017</v>
       </c>
       <c r="M36" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="N36" t="s">
-        <v>1843</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -7742,10 +7124,10 @@
         <v>1381</v>
       </c>
       <c r="M37" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="N37" t="s">
-        <v>1844</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -7786,10 +7168,10 @@
         <v>1604</v>
       </c>
       <c r="M38" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="N38" t="s">
-        <v>1845</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -7827,10 +7209,10 @@
         <v>1605</v>
       </c>
       <c r="M39" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="N39" t="s">
-        <v>1846</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -7871,10 +7253,10 @@
         <v>1335</v>
       </c>
       <c r="M40" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="N40" t="s">
-        <v>1847</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -7915,10 +7297,10 @@
         <v>1372</v>
       </c>
       <c r="M41" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="N41" t="s">
-        <v>1848</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -7959,10 +7341,10 @@
         <v>1017</v>
       </c>
       <c r="M42" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="N42" t="s">
-        <v>1849</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -8003,10 +7385,10 @@
         <v>1017</v>
       </c>
       <c r="M43" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="N43" t="s">
-        <v>1850</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -8044,10 +7426,10 @@
         <v>1372</v>
       </c>
       <c r="M44" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="N44" t="s">
-        <v>1851</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -8085,10 +7467,10 @@
         <v>1606</v>
       </c>
       <c r="M45" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="N45" t="s">
-        <v>1852</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -8129,10 +7511,10 @@
         <v>1607</v>
       </c>
       <c r="M46" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="N46" t="s">
-        <v>1853</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -8170,7 +7552,7 @@
         <v>1040</v>
       </c>
       <c r="M47" t="s">
-        <v>1654</v>
+        <v>1378</v>
       </c>
       <c r="N47" t="s">
         <v>1378</v>
@@ -8214,10 +7596,10 @@
         <v>1335</v>
       </c>
       <c r="M48" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="N48" t="s">
-        <v>1854</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -8257,9 +7639,6 @@
       <c r="L49" t="s">
         <v>1608</v>
       </c>
-      <c r="M49" t="s">
-        <v>1656</v>
-      </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="s">
@@ -8296,10 +7675,10 @@
         <v>1380</v>
       </c>
       <c r="M50" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="N50" t="s">
-        <v>1855</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -8337,10 +7716,10 @@
         <v>1330</v>
       </c>
       <c r="M51" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="N51" t="s">
-        <v>1856</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -8378,10 +7757,10 @@
         <v>1393</v>
       </c>
       <c r="M52" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="N52" t="s">
-        <v>1857</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -8422,7 +7801,7 @@
         <v>1391</v>
       </c>
       <c r="M53" t="s">
-        <v>1660</v>
+        <v>1348</v>
       </c>
       <c r="N53" t="s">
         <v>1348</v>
@@ -8460,10 +7839,10 @@
         <v>1449</v>
       </c>
       <c r="M54" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="N54" t="s">
-        <v>1858</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -8504,10 +7883,10 @@
         <v>1316</v>
       </c>
       <c r="M55" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="N55" t="s">
-        <v>1859</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -8545,10 +7924,10 @@
         <v>1307</v>
       </c>
       <c r="M56" t="s">
-        <v>1663</v>
+        <v>1658</v>
       </c>
       <c r="N56" t="s">
-        <v>1860</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -8579,9 +7958,6 @@
       <c r="K57" t="s">
         <v>1452</v>
       </c>
-      <c r="M57" t="s">
-        <v>1664</v>
-      </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
@@ -8618,10 +7994,10 @@
         <v>1392</v>
       </c>
       <c r="M58" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="N58" t="s">
-        <v>1861</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -8662,10 +8038,10 @@
         <v>1609</v>
       </c>
       <c r="M59" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="N59" t="s">
-        <v>1862</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -8696,9 +8072,6 @@
       <c r="K60" t="s">
         <v>1455</v>
       </c>
-      <c r="M60" t="s">
-        <v>1667</v>
-      </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" t="s">
@@ -8735,10 +8108,10 @@
         <v>1046</v>
       </c>
       <c r="M61" t="s">
-        <v>1668</v>
+        <v>1661</v>
       </c>
       <c r="N61" t="s">
-        <v>1863</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -8776,10 +8149,10 @@
         <v>1335</v>
       </c>
       <c r="M62" t="s">
-        <v>1669</v>
+        <v>1662</v>
       </c>
       <c r="N62" t="s">
-        <v>1864</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -8820,10 +8193,10 @@
         <v>1023</v>
       </c>
       <c r="M63" t="s">
-        <v>1670</v>
+        <v>1663</v>
       </c>
       <c r="N63" t="s">
-        <v>1865</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -8861,10 +8234,10 @@
         <v>1040</v>
       </c>
       <c r="M64" t="s">
-        <v>1671</v>
+        <v>1664</v>
       </c>
       <c r="N64" t="s">
-        <v>1866</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -8902,10 +8275,10 @@
         <v>1044</v>
       </c>
       <c r="M65" t="s">
-        <v>1672</v>
+        <v>1665</v>
       </c>
       <c r="N65" t="s">
-        <v>1867</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -8946,7 +8319,7 @@
         <v>1044</v>
       </c>
       <c r="M66" t="s">
-        <v>1673</v>
+        <v>1336</v>
       </c>
       <c r="N66" t="s">
         <v>1336</v>
@@ -8990,10 +8363,10 @@
         <v>1034</v>
       </c>
       <c r="M67" t="s">
-        <v>1674</v>
+        <v>1666</v>
       </c>
       <c r="N67" t="s">
-        <v>1868</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -9028,10 +8401,10 @@
         <v>1463</v>
       </c>
       <c r="M68" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="N68" t="s">
-        <v>1869</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -9069,10 +8442,10 @@
         <v>1464</v>
       </c>
       <c r="M69" t="s">
-        <v>1676</v>
+        <v>1668</v>
       </c>
       <c r="N69" t="s">
-        <v>1870</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -9110,10 +8483,10 @@
         <v>1382</v>
       </c>
       <c r="M70" t="s">
-        <v>1677</v>
+        <v>1669</v>
       </c>
       <c r="N70" t="s">
-        <v>1871</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -9151,10 +8524,10 @@
         <v>1610</v>
       </c>
       <c r="M71" t="s">
-        <v>1678</v>
+        <v>1670</v>
       </c>
       <c r="N71" t="s">
-        <v>1872</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -9195,10 +8568,10 @@
         <v>1023</v>
       </c>
       <c r="M72" t="s">
-        <v>1679</v>
+        <v>1671</v>
       </c>
       <c r="N72" t="s">
-        <v>1873</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -9236,10 +8609,10 @@
         <v>1468</v>
       </c>
       <c r="M73" t="s">
-        <v>1680</v>
+        <v>1672</v>
       </c>
       <c r="N73" t="s">
-        <v>1874</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -9280,10 +8653,10 @@
         <v>1611</v>
       </c>
       <c r="M74" t="s">
-        <v>1681</v>
+        <v>1673</v>
       </c>
       <c r="N74" t="s">
-        <v>1875</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -9321,10 +8694,10 @@
         <v>1396</v>
       </c>
       <c r="M75" t="s">
-        <v>1682</v>
+        <v>1674</v>
       </c>
       <c r="N75" t="s">
-        <v>1876</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -9365,10 +8738,10 @@
         <v>1396</v>
       </c>
       <c r="M76" t="s">
-        <v>1683</v>
+        <v>1675</v>
       </c>
       <c r="N76" t="s">
-        <v>1877</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -9409,10 +8782,10 @@
         <v>1380</v>
       </c>
       <c r="M77" t="s">
-        <v>1684</v>
+        <v>1676</v>
       </c>
       <c r="N77" t="s">
-        <v>1878</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -9450,10 +8823,10 @@
         <v>1040</v>
       </c>
       <c r="M78" t="s">
-        <v>1685</v>
+        <v>1677</v>
       </c>
       <c r="N78" t="s">
-        <v>1879</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -9491,10 +8864,10 @@
         <v>1316</v>
       </c>
       <c r="M79" t="s">
-        <v>1686</v>
+        <v>1678</v>
       </c>
       <c r="N79" t="s">
-        <v>1880</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -9532,10 +8905,10 @@
         <v>1382</v>
       </c>
       <c r="M80" t="s">
-        <v>1687</v>
+        <v>1679</v>
       </c>
       <c r="N80" t="s">
-        <v>1881</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -9573,10 +8946,10 @@
         <v>1046</v>
       </c>
       <c r="M81" t="s">
-        <v>1688</v>
+        <v>1680</v>
       </c>
       <c r="N81" t="s">
-        <v>1882</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -9617,10 +8990,10 @@
         <v>1396</v>
       </c>
       <c r="M82" t="s">
-        <v>1689</v>
+        <v>1681</v>
       </c>
       <c r="N82" t="s">
-        <v>1883</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -9658,7 +9031,7 @@
         <v>1478</v>
       </c>
       <c r="M83" t="s">
-        <v>1690</v>
+        <v>1592</v>
       </c>
       <c r="N83" t="s">
         <v>1592</v>
@@ -9699,10 +9072,10 @@
         <v>1595</v>
       </c>
       <c r="M84" t="s">
-        <v>1691</v>
+        <v>1682</v>
       </c>
       <c r="N84" t="s">
-        <v>1884</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -9740,10 +9113,10 @@
         <v>1018</v>
       </c>
       <c r="M85" t="s">
-        <v>1692</v>
+        <v>1683</v>
       </c>
       <c r="N85" t="s">
-        <v>1885</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -9781,10 +9154,10 @@
         <v>1481</v>
       </c>
       <c r="M86" t="s">
-        <v>1693</v>
+        <v>1684</v>
       </c>
       <c r="N86" t="s">
-        <v>1886</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -9821,9 +9194,6 @@
       <c r="L87" t="s">
         <v>1349</v>
       </c>
-      <c r="M87" t="s">
-        <v>1694</v>
-      </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" t="s">
@@ -9853,9 +9223,6 @@
       <c r="K88" t="s">
         <v>1483</v>
       </c>
-      <c r="M88" t="s">
-        <v>1695</v>
-      </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" t="s">
@@ -9892,10 +9259,10 @@
         <v>1384</v>
       </c>
       <c r="M89" t="s">
-        <v>1696</v>
+        <v>1685</v>
       </c>
       <c r="N89" t="s">
-        <v>1887</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -9936,10 +9303,10 @@
         <v>1043</v>
       </c>
       <c r="M90" t="s">
-        <v>1697</v>
+        <v>1686</v>
       </c>
       <c r="N90" t="s">
-        <v>1888</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -9977,10 +9344,10 @@
         <v>1395</v>
       </c>
       <c r="M91" t="s">
-        <v>1698</v>
+        <v>1687</v>
       </c>
       <c r="N91" t="s">
-        <v>1889</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -10020,9 +9387,6 @@
       <c r="L92" t="s">
         <v>1380</v>
       </c>
-      <c r="M92" t="s">
-        <v>1699</v>
-      </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" t="s">
@@ -10059,10 +9423,10 @@
         <v>1040</v>
       </c>
       <c r="M93" t="s">
-        <v>1700</v>
+        <v>1688</v>
       </c>
       <c r="N93" t="s">
-        <v>1890</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -10093,9 +9457,6 @@
       <c r="K94" t="s">
         <v>1489</v>
       </c>
-      <c r="M94" t="s">
-        <v>1701</v>
-      </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" t="s">
@@ -10132,10 +9493,10 @@
         <v>1391</v>
       </c>
       <c r="M95" t="s">
-        <v>1702</v>
+        <v>1689</v>
       </c>
       <c r="N95" t="s">
-        <v>1891</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -10173,10 +9534,10 @@
         <v>1032</v>
       </c>
       <c r="M96" t="s">
-        <v>1703</v>
+        <v>1690</v>
       </c>
       <c r="N96" t="s">
-        <v>1892</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -10214,10 +9575,10 @@
         <v>1017</v>
       </c>
       <c r="M97" t="s">
-        <v>1704</v>
+        <v>1691</v>
       </c>
       <c r="N97" t="s">
-        <v>1893</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -10258,10 +9619,10 @@
         <v>1040</v>
       </c>
       <c r="M98" t="s">
-        <v>1705</v>
+        <v>1692</v>
       </c>
       <c r="N98" t="s">
-        <v>1894</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -10296,10 +9657,10 @@
         <v>1494</v>
       </c>
       <c r="M99" t="s">
-        <v>1706</v>
+        <v>1693</v>
       </c>
       <c r="N99" t="s">
-        <v>1895</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -10337,7 +9698,7 @@
         <v>1023</v>
       </c>
       <c r="M100" t="s">
-        <v>1707</v>
+        <v>1337</v>
       </c>
       <c r="N100" t="s">
         <v>1337</v>
@@ -10374,9 +9735,6 @@
       <c r="K101" t="s">
         <v>1496</v>
       </c>
-      <c r="M101" t="s">
-        <v>1708</v>
-      </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" t="s">
@@ -10406,9 +9764,6 @@
       <c r="K102" t="s">
         <v>1497</v>
       </c>
-      <c r="M102" t="s">
-        <v>1709</v>
-      </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" t="s">
@@ -10445,10 +9800,10 @@
         <v>1372</v>
       </c>
       <c r="M103" t="s">
-        <v>1710</v>
+        <v>1694</v>
       </c>
       <c r="N103" t="s">
-        <v>1896</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -10486,10 +9841,10 @@
         <v>1499</v>
       </c>
       <c r="M104" t="s">
-        <v>1711</v>
+        <v>1664</v>
       </c>
       <c r="N104" t="s">
-        <v>1866</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -10520,9 +9875,6 @@
       <c r="K105" t="s">
         <v>1500</v>
       </c>
-      <c r="M105" t="s">
-        <v>1712</v>
-      </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" t="s">
@@ -10562,7 +9914,7 @@
         <v>1017</v>
       </c>
       <c r="M106" t="s">
-        <v>1713</v>
+        <v>1608</v>
       </c>
       <c r="N106" t="s">
         <v>1608</v>
@@ -10599,9 +9951,6 @@
       <c r="K107" t="s">
         <v>1502</v>
       </c>
-      <c r="M107" t="s">
-        <v>1714</v>
-      </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" t="s">
@@ -10638,10 +9987,10 @@
         <v>1032</v>
       </c>
       <c r="M108" t="s">
-        <v>1715</v>
+        <v>1695</v>
       </c>
       <c r="N108" t="s">
-        <v>1897</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -10672,9 +10021,6 @@
       <c r="K109" t="s">
         <v>1504</v>
       </c>
-      <c r="M109" t="s">
-        <v>1716</v>
-      </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" t="s">
@@ -10707,9 +10053,6 @@
       <c r="L110" t="s">
         <v>1043</v>
       </c>
-      <c r="M110" t="s">
-        <v>1717</v>
-      </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" t="s">
@@ -10745,9 +10088,6 @@
       <c r="L111" t="s">
         <v>1595</v>
       </c>
-      <c r="M111" t="s">
-        <v>1718</v>
-      </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" t="s">
@@ -10787,7 +10127,7 @@
         <v>1040</v>
       </c>
       <c r="M112" t="s">
-        <v>1719</v>
+        <v>1391</v>
       </c>
       <c r="N112" t="s">
         <v>1391</v>
@@ -10825,7 +10165,7 @@
         <v>1470</v>
       </c>
       <c r="M113" t="s">
-        <v>1720</v>
+        <v>1367</v>
       </c>
       <c r="N113" t="s">
         <v>1367</v>
@@ -10869,10 +10209,10 @@
         <v>1384</v>
       </c>
       <c r="M114" t="s">
-        <v>1721</v>
+        <v>1696</v>
       </c>
       <c r="N114" t="s">
-        <v>1898</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -10903,9 +10243,6 @@
       <c r="K115" t="s">
         <v>1509</v>
       </c>
-      <c r="M115" t="s">
-        <v>1722</v>
-      </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" t="s">
@@ -10939,10 +10276,10 @@
         <v>1510</v>
       </c>
       <c r="M116" t="s">
-        <v>1723</v>
+        <v>1697</v>
       </c>
       <c r="N116" t="s">
-        <v>1899</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -10983,7 +10320,7 @@
         <v>1026</v>
       </c>
       <c r="M117" t="s">
-        <v>1724</v>
+        <v>1586</v>
       </c>
       <c r="N117" t="s">
         <v>1586</v>
@@ -11021,7 +10358,7 @@
         <v>1512</v>
       </c>
       <c r="M118" t="s">
-        <v>1725</v>
+        <v>1017</v>
       </c>
       <c r="N118" t="s">
         <v>1017</v>
@@ -11065,7 +10402,7 @@
         <v>1046</v>
       </c>
       <c r="M119" t="s">
-        <v>1726</v>
+        <v>1367</v>
       </c>
       <c r="N119" t="s">
         <v>1367</v>
@@ -11106,7 +10443,7 @@
         <v>1040</v>
       </c>
       <c r="M120" t="s">
-        <v>1727</v>
+        <v>1307</v>
       </c>
       <c r="N120" t="s">
         <v>1307</v>
@@ -11147,10 +10484,10 @@
         <v>1391</v>
       </c>
       <c r="M121" t="s">
-        <v>1728</v>
+        <v>1698</v>
       </c>
       <c r="N121" t="s">
-        <v>1900</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -11181,9 +10518,6 @@
       <c r="K122" t="s">
         <v>1516</v>
       </c>
-      <c r="M122" t="s">
-        <v>1729</v>
-      </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" t="s">
@@ -11220,10 +10554,10 @@
         <v>1602</v>
       </c>
       <c r="M123" t="s">
-        <v>1730</v>
+        <v>1697</v>
       </c>
       <c r="N123" t="s">
-        <v>1899</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -11261,10 +10595,10 @@
         <v>1046</v>
       </c>
       <c r="M124" t="s">
-        <v>1731</v>
+        <v>1699</v>
       </c>
       <c r="N124" t="s">
-        <v>1901</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -11295,9 +10629,6 @@
       <c r="K125" t="s">
         <v>1519</v>
       </c>
-      <c r="M125" t="s">
-        <v>1732</v>
-      </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" t="s">
@@ -11327,9 +10658,6 @@
       <c r="K126" t="s">
         <v>1520</v>
       </c>
-      <c r="M126" t="s">
-        <v>1733</v>
-      </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" t="s">
@@ -11366,10 +10694,10 @@
         <v>1023</v>
       </c>
       <c r="M127" t="s">
-        <v>1734</v>
+        <v>1700</v>
       </c>
       <c r="N127" t="s">
-        <v>1902</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -11407,7 +10735,7 @@
         <v>1046</v>
       </c>
       <c r="M128" t="s">
-        <v>1735</v>
+        <v>1605</v>
       </c>
       <c r="N128" t="s">
         <v>1605</v>
@@ -11441,9 +10769,6 @@
       <c r="K129" t="s">
         <v>1523</v>
       </c>
-      <c r="M129" t="s">
-        <v>1736</v>
-      </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" t="s">
@@ -11483,7 +10808,7 @@
         <v>1392</v>
       </c>
       <c r="M130" t="s">
-        <v>1737</v>
+        <v>1602</v>
       </c>
       <c r="N130" t="s">
         <v>1602</v>
@@ -11526,9 +10851,6 @@
       <c r="L131" t="s">
         <v>1017</v>
       </c>
-      <c r="M131" t="s">
-        <v>1738</v>
-      </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" t="s">
@@ -11558,9 +10880,6 @@
       <c r="K132" t="s">
         <v>1526</v>
       </c>
-      <c r="M132" t="s">
-        <v>1739</v>
-      </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" t="s">
@@ -11593,9 +10912,6 @@
       <c r="L133" t="s">
         <v>1040</v>
       </c>
-      <c r="M133" t="s">
-        <v>1740</v>
-      </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" t="s">
@@ -11629,7 +10945,7 @@
         <v>1528</v>
       </c>
       <c r="M134" t="s">
-        <v>1741</v>
+        <v>1380</v>
       </c>
       <c r="N134" t="s">
         <v>1380</v>
@@ -11667,10 +10983,10 @@
         <v>1529</v>
       </c>
       <c r="M135" t="s">
-        <v>1742</v>
+        <v>1701</v>
       </c>
       <c r="N135" t="s">
-        <v>1903</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -11708,7 +11024,7 @@
         <v>1530</v>
       </c>
       <c r="M136" t="s">
-        <v>1743</v>
+        <v>1381</v>
       </c>
       <c r="N136" t="s">
         <v>1381</v>
@@ -11749,10 +11065,10 @@
         <v>1040</v>
       </c>
       <c r="M137" t="s">
-        <v>1744</v>
+        <v>1702</v>
       </c>
       <c r="N137" t="s">
-        <v>1904</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -11790,10 +11106,10 @@
         <v>1607</v>
       </c>
       <c r="M138" t="s">
-        <v>1745</v>
+        <v>1701</v>
       </c>
       <c r="N138" t="s">
-        <v>1903</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -11834,10 +11150,10 @@
         <v>1017</v>
       </c>
       <c r="M139" t="s">
-        <v>1746</v>
+        <v>1703</v>
       </c>
       <c r="N139" t="s">
-        <v>1905</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -11872,7 +11188,7 @@
         <v>1534</v>
       </c>
       <c r="M140" t="s">
-        <v>1747</v>
+        <v>1348</v>
       </c>
       <c r="N140" t="s">
         <v>1348</v>
@@ -11906,9 +11222,6 @@
       <c r="K141" t="s">
         <v>1535</v>
       </c>
-      <c r="M141" t="s">
-        <v>1748</v>
-      </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" t="s">
@@ -11942,10 +11255,10 @@
         <v>1536</v>
       </c>
       <c r="M142" t="s">
-        <v>1749</v>
+        <v>1704</v>
       </c>
       <c r="N142" t="s">
-        <v>1906</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -11982,9 +11295,6 @@
       <c r="L143" t="s">
         <v>1040</v>
       </c>
-      <c r="M143" t="s">
-        <v>1750</v>
-      </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" t="s">
@@ -12014,9 +11324,6 @@
       <c r="K144" t="s">
         <v>1537</v>
       </c>
-      <c r="M144" t="s">
-        <v>1751</v>
-      </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" t="s">
@@ -12046,9 +11353,6 @@
       <c r="K145" t="s">
         <v>1538</v>
       </c>
-      <c r="M145" t="s">
-        <v>1752</v>
-      </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" t="s">
@@ -12078,9 +11382,6 @@
       <c r="K146" t="s">
         <v>1539</v>
       </c>
-      <c r="M146" t="s">
-        <v>1753</v>
-      </c>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" t="s">
@@ -12113,9 +11414,6 @@
       <c r="K147" t="s">
         <v>1540</v>
       </c>
-      <c r="M147" t="s">
-        <v>1754</v>
-      </c>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" t="s">
@@ -12152,10 +11450,10 @@
         <v>1046</v>
       </c>
       <c r="M148" t="s">
-        <v>1755</v>
+        <v>1705</v>
       </c>
       <c r="N148" t="s">
-        <v>1907</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -12189,9 +11487,6 @@
       <c r="K149" t="s">
         <v>1542</v>
       </c>
-      <c r="M149" t="s">
-        <v>1756</v>
-      </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" t="s">
@@ -12221,9 +11516,6 @@
       <c r="K150" t="s">
         <v>1543</v>
       </c>
-      <c r="M150" t="s">
-        <v>1757</v>
-      </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" t="s">
@@ -12260,7 +11552,7 @@
         <v>1023</v>
       </c>
       <c r="M151" t="s">
-        <v>1758</v>
+        <v>1587</v>
       </c>
       <c r="N151" t="s">
         <v>1587</v>
@@ -12301,7 +11593,7 @@
         <v>1040</v>
       </c>
       <c r="M152" t="s">
-        <v>1759</v>
+        <v>1343</v>
       </c>
       <c r="N152" t="s">
         <v>1343</v>
@@ -12335,9 +11627,6 @@
       <c r="K153" t="s">
         <v>979</v>
       </c>
-      <c r="M153" t="s">
-        <v>1531</v>
-      </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" t="s">
@@ -12367,9 +11656,6 @@
       <c r="K154" t="s">
         <v>1545</v>
       </c>
-      <c r="M154" t="s">
-        <v>1760</v>
-      </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" t="s">
@@ -12406,7 +11692,7 @@
         <v>1040</v>
       </c>
       <c r="M155" t="s">
-        <v>1761</v>
+        <v>1316</v>
       </c>
       <c r="N155" t="s">
         <v>1316</v>
@@ -12443,9 +11729,6 @@
       <c r="K156" t="s">
         <v>1547</v>
       </c>
-      <c r="M156" t="s">
-        <v>1762</v>
-      </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" t="s">
@@ -12479,7 +11762,7 @@
         <v>1548</v>
       </c>
       <c r="M157" t="s">
-        <v>1763</v>
+        <v>1370</v>
       </c>
       <c r="N157" t="s">
         <v>1370</v>
@@ -12513,9 +11796,6 @@
       <c r="K158" t="s">
         <v>1549</v>
       </c>
-      <c r="M158" t="s">
-        <v>1764</v>
-      </c>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" t="s">
@@ -12549,7 +11829,7 @@
         <v>1550</v>
       </c>
       <c r="M159" t="s">
-        <v>1765</v>
+        <v>1384</v>
       </c>
       <c r="N159" t="s">
         <v>1384</v>
@@ -12590,7 +11870,7 @@
         <v>1040</v>
       </c>
       <c r="M160" t="s">
-        <v>1766</v>
+        <v>1044</v>
       </c>
       <c r="N160" t="s">
         <v>1044</v>
@@ -12630,9 +11910,6 @@
       <c r="L161" t="s">
         <v>1040</v>
       </c>
-      <c r="M161" t="s">
-        <v>1767</v>
-      </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" t="s">
@@ -12662,9 +11939,6 @@
       <c r="K162" t="s">
         <v>1553</v>
       </c>
-      <c r="M162" t="s">
-        <v>1768</v>
-      </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" t="s">
@@ -12694,9 +11968,6 @@
       <c r="K163" t="s">
         <v>1554</v>
       </c>
-      <c r="M163" t="s">
-        <v>1769</v>
-      </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" t="s">
@@ -12733,7 +12004,7 @@
         <v>1023</v>
       </c>
       <c r="M164" t="s">
-        <v>1770</v>
+        <v>1602</v>
       </c>
       <c r="N164" t="s">
         <v>1602</v>
@@ -12774,7 +12045,7 @@
         <v>1384</v>
       </c>
       <c r="M165" t="s">
-        <v>1771</v>
+        <v>1603</v>
       </c>
       <c r="N165" t="s">
         <v>1603</v>
@@ -12812,7 +12083,7 @@
         <v>1556</v>
       </c>
       <c r="M166" t="s">
-        <v>1772</v>
+        <v>1391</v>
       </c>
       <c r="N166" t="s">
         <v>1391</v>
@@ -12849,9 +12120,6 @@
       <c r="K167" t="s">
         <v>1557</v>
       </c>
-      <c r="M167" t="s">
-        <v>1773</v>
-      </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" t="s">
@@ -12881,9 +12149,6 @@
       <c r="K168" t="s">
         <v>1558</v>
       </c>
-      <c r="M168" t="s">
-        <v>1774</v>
-      </c>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" t="s">
@@ -12913,9 +12178,6 @@
       <c r="K169" t="s">
         <v>326</v>
       </c>
-      <c r="M169" t="s">
-        <v>1775</v>
-      </c>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" t="s">
@@ -12945,9 +12207,6 @@
       <c r="K170" t="s">
         <v>532</v>
       </c>
-      <c r="M170" t="s">
-        <v>1776</v>
-      </c>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" t="s">
@@ -12984,10 +12243,10 @@
         <v>1392</v>
       </c>
       <c r="M171" t="s">
-        <v>1777</v>
+        <v>1706</v>
       </c>
       <c r="N171" t="s">
-        <v>1908</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -13018,9 +12277,6 @@
       <c r="K172" t="s">
         <v>1560</v>
       </c>
-      <c r="M172" t="s">
-        <v>1778</v>
-      </c>
     </row>
     <row r="173" spans="1:14">
       <c r="A173" t="s">
@@ -13057,10 +12313,10 @@
         <v>1607</v>
       </c>
       <c r="M173" t="s">
-        <v>1779</v>
+        <v>1707</v>
       </c>
       <c r="N173" t="s">
-        <v>1909</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -13098,10 +12354,10 @@
         <v>1040</v>
       </c>
       <c r="M174" t="s">
-        <v>1780</v>
+        <v>1708</v>
       </c>
       <c r="N174" t="s">
-        <v>1910</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -13135,9 +12391,6 @@
       <c r="K175" t="s">
         <v>1563</v>
       </c>
-      <c r="M175" t="s">
-        <v>1781</v>
-      </c>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" t="s">
@@ -13173,9 +12426,6 @@
       <c r="L176" t="s">
         <v>1602</v>
       </c>
-      <c r="M176" t="s">
-        <v>1782</v>
-      </c>
     </row>
     <row r="177" spans="1:14">
       <c r="A177" t="s">
@@ -13215,10 +12465,10 @@
         <v>1040</v>
       </c>
       <c r="M177" t="s">
-        <v>1783</v>
+        <v>1709</v>
       </c>
       <c r="N177" t="s">
-        <v>1911</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -13253,7 +12503,7 @@
         <v>324</v>
       </c>
       <c r="M178" t="s">
-        <v>1784</v>
+        <v>1040</v>
       </c>
       <c r="N178" t="s">
         <v>1040</v>
@@ -13288,7 +12538,7 @@
         <v>1566</v>
       </c>
       <c r="M179" t="s">
-        <v>1785</v>
+        <v>1040</v>
       </c>
       <c r="N179" t="s">
         <v>1040</v>
@@ -13326,7 +12576,7 @@
         <v>1567</v>
       </c>
       <c r="M180" t="s">
-        <v>1786</v>
+        <v>1607</v>
       </c>
       <c r="N180" t="s">
         <v>1607</v>
@@ -13364,7 +12614,7 @@
         <v>1568</v>
       </c>
       <c r="M181" t="s">
-        <v>1787</v>
+        <v>1391</v>
       </c>
       <c r="N181" t="s">
         <v>1391</v>
@@ -13398,9 +12648,6 @@
       <c r="K182" t="s">
         <v>1569</v>
       </c>
-      <c r="M182" t="s">
-        <v>1788</v>
-      </c>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" t="s">
@@ -13430,9 +12677,6 @@
       <c r="K183" t="s">
         <v>1570</v>
       </c>
-      <c r="M183" t="s">
-        <v>1789</v>
-      </c>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" t="s">
@@ -13462,9 +12706,6 @@
       <c r="K184" t="s">
         <v>1571</v>
       </c>
-      <c r="M184" t="s">
-        <v>1790</v>
-      </c>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" t="s">
@@ -13494,9 +12735,6 @@
       <c r="K185" t="s">
         <v>1572</v>
       </c>
-      <c r="M185" t="s">
-        <v>1791</v>
-      </c>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" t="s">
@@ -13533,10 +12771,10 @@
         <v>1384</v>
       </c>
       <c r="M186" t="s">
-        <v>1792</v>
+        <v>1710</v>
       </c>
       <c r="N186" t="s">
-        <v>1912</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="187" spans="1:14">
@@ -13571,7 +12809,7 @@
         <v>973</v>
       </c>
       <c r="M187" t="s">
-        <v>1793</v>
+        <v>1040</v>
       </c>
       <c r="N187" t="s">
         <v>1040</v>
@@ -13609,7 +12847,7 @@
         <v>1573</v>
       </c>
       <c r="M188" t="s">
-        <v>1794</v>
+        <v>1380</v>
       </c>
       <c r="N188" t="s">
         <v>1380</v>
@@ -13647,7 +12885,7 @@
         <v>1255</v>
       </c>
       <c r="M189" t="s">
-        <v>1795</v>
+        <v>1391</v>
       </c>
       <c r="N189" t="s">
         <v>1391</v>
@@ -13685,7 +12923,7 @@
         <v>1574</v>
       </c>
       <c r="M190" t="s">
-        <v>1796</v>
+        <v>1040</v>
       </c>
       <c r="N190" t="s">
         <v>1040</v>
@@ -13719,9 +12957,6 @@
       <c r="K191" t="s">
         <v>1575</v>
       </c>
-      <c r="M191" t="s">
-        <v>1797</v>
-      </c>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" t="s">
@@ -13755,7 +12990,7 @@
         <v>1576</v>
       </c>
       <c r="M192" t="s">
-        <v>1798</v>
+        <v>1372</v>
       </c>
       <c r="N192" t="s">
         <v>1372</v>
@@ -13796,7 +13031,7 @@
         <v>1040</v>
       </c>
       <c r="M193" t="s">
-        <v>1492</v>
+        <v>1604</v>
       </c>
       <c r="N193" t="s">
         <v>1604</v>
@@ -13837,7 +13072,7 @@
         <v>1040</v>
       </c>
       <c r="M194" t="s">
-        <v>1799</v>
+        <v>1396</v>
       </c>
       <c r="N194" t="s">
         <v>1396</v>
@@ -13875,7 +13110,7 @@
         <v>326</v>
       </c>
       <c r="M195" t="s">
-        <v>1800</v>
+        <v>1384</v>
       </c>
       <c r="N195" t="s">
         <v>1384</v>
@@ -13909,9 +13144,6 @@
       <c r="K196" t="s">
         <v>343</v>
       </c>
-      <c r="M196" t="s">
-        <v>1801</v>
-      </c>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" t="s">
@@ -13948,10 +13180,10 @@
         <v>1607</v>
       </c>
       <c r="M197" t="s">
-        <v>1802</v>
+        <v>1711</v>
       </c>
       <c r="N197" t="s">
-        <v>1913</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -13986,7 +13218,7 @@
         <v>317</v>
       </c>
       <c r="M198" t="s">
-        <v>1803</v>
+        <v>1392</v>
       </c>
       <c r="N198" t="s">
         <v>1392</v>
@@ -14020,9 +13252,6 @@
       <c r="K199" t="s">
         <v>985</v>
       </c>
-      <c r="M199" t="s">
-        <v>1804</v>
-      </c>
     </row>
     <row r="200" spans="1:14">
       <c r="A200" t="s">
@@ -14055,9 +13284,6 @@
       <c r="K200" t="s">
         <v>318</v>
       </c>
-      <c r="M200" t="s">
-        <v>1805</v>
-      </c>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" t="s">
@@ -14090,9 +13316,6 @@
       <c r="K201" t="s">
         <v>1578</v>
       </c>
-      <c r="M201" t="s">
-        <v>1806</v>
-      </c>
     </row>
     <row r="202" spans="1:14">
       <c r="A202" t="s">
@@ -14129,7 +13352,7 @@
         <v>1040</v>
       </c>
       <c r="M202" t="s">
-        <v>1807</v>
+        <v>1391</v>
       </c>
       <c r="N202" t="s">
         <v>1391</v>
@@ -14163,9 +13386,6 @@
       <c r="K203" t="s">
         <v>318</v>
       </c>
-      <c r="M203" t="s">
-        <v>1808</v>
-      </c>
     </row>
     <row r="204" spans="1:14">
       <c r="A204" t="s">
@@ -14195,9 +13415,6 @@
       <c r="K204" t="s">
         <v>1577</v>
       </c>
-      <c r="M204" t="s">
-        <v>1535</v>
-      </c>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" t="s">
@@ -14227,9 +13444,6 @@
       <c r="K205" t="s">
         <v>346</v>
       </c>
-      <c r="M205" t="s">
-        <v>1809</v>
-      </c>
     </row>
     <row r="206" spans="1:14">
       <c r="A206" t="s">
@@ -14263,7 +13477,7 @@
         <v>346</v>
       </c>
       <c r="M206" t="s">
-        <v>1810</v>
+        <v>1040</v>
       </c>
       <c r="N206" t="s">
         <v>1040</v>
@@ -14301,7 +13515,7 @@
         <v>1580</v>
       </c>
       <c r="M207" t="s">
-        <v>1811</v>
+        <v>1363</v>
       </c>
       <c r="N207" t="s">
         <v>1363</v>
@@ -14335,11 +13549,8 @@
       <c r="K208" t="s">
         <v>344</v>
       </c>
-      <c r="M208" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13">
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209" t="s">
         <v>221</v>
       </c>
@@ -14367,11 +13578,8 @@
       <c r="K209" t="s">
         <v>316</v>
       </c>
-      <c r="M209" t="s">
-        <v>1813</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13">
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" t="s">
         <v>222</v>
       </c>
@@ -14402,11 +13610,8 @@
       <c r="K210" t="s">
         <v>1580</v>
       </c>
-      <c r="M210" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13">
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" t="s">
         <v>223</v>
       </c>
@@ -14434,11 +13639,8 @@
       <c r="K211" t="s">
         <v>1580</v>
       </c>
-      <c r="M211" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13">
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212" t="s">
         <v>224</v>
       </c>
@@ -14466,11 +13668,8 @@
       <c r="K212" t="s">
         <v>316</v>
       </c>
-      <c r="M212" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13">
+    </row>
+    <row r="213" spans="1:11">
       <c r="A213" t="s">
         <v>225</v>
       </c>
@@ -14498,11 +13697,8 @@
       <c r="K213" t="s">
         <v>1580</v>
       </c>
-      <c r="M213" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13">
+    </row>
+    <row r="214" spans="1:11">
       <c r="A214" t="s">
         <v>226</v>
       </c>
@@ -14530,11 +13726,8 @@
       <c r="K214" t="s">
         <v>1580</v>
       </c>
-      <c r="M214" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13">
+    </row>
+    <row r="215" spans="1:11">
       <c r="A215" t="s">
         <v>227</v>
       </c>
@@ -14562,11 +13755,8 @@
       <c r="K215" t="s">
         <v>1580</v>
       </c>
-      <c r="M215" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13">
+    </row>
+    <row r="216" spans="1:11">
       <c r="A216" t="s">
         <v>228</v>
       </c>
@@ -14594,11 +13784,8 @@
       <c r="K216" t="s">
         <v>316</v>
       </c>
-      <c r="M216" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13">
+    </row>
+    <row r="217" spans="1:11">
       <c r="A217" t="s">
         <v>229</v>
       </c>
@@ -14626,11 +13813,8 @@
       <c r="K217" t="s">
         <v>346</v>
       </c>
-      <c r="M217" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13">
+    </row>
+    <row r="218" spans="1:11">
       <c r="A218" t="s">
         <v>230</v>
       </c>
@@ -14658,11 +13842,8 @@
       <c r="K218" t="s">
         <v>1580</v>
       </c>
-      <c r="M218" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13">
+    </row>
+    <row r="219" spans="1:11">
       <c r="A219" t="s">
         <v>231</v>
       </c>
@@ -14690,11 +13871,8 @@
       <c r="K219" t="s">
         <v>1580</v>
       </c>
-      <c r="M219" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13">
+    </row>
+    <row r="220" spans="1:11">
       <c r="A220" t="s">
         <v>232</v>
       </c>
@@ -14722,11 +13900,8 @@
       <c r="K220" t="s">
         <v>316</v>
       </c>
-      <c r="M220" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13">
+    </row>
+    <row r="221" spans="1:11">
       <c r="A221" t="s">
         <v>233</v>
       </c>
@@ -14754,11 +13929,8 @@
       <c r="K221" t="s">
         <v>1580</v>
       </c>
-      <c r="M221" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13">
+    </row>
+    <row r="222" spans="1:11">
       <c r="A222" t="s">
         <v>234</v>
       </c>
@@ -14786,11 +13958,8 @@
       <c r="K222" t="s">
         <v>1580</v>
       </c>
-      <c r="M222" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13">
+    </row>
+    <row r="223" spans="1:11">
       <c r="A223" t="s">
         <v>235</v>
       </c>
@@ -14817,9 +13986,6 @@
       </c>
       <c r="K223" t="s">
         <v>1580</v>
-      </c>
-      <c r="M223" t="s">
-        <v>316</v>
       </c>
     </row>
   </sheetData>
